--- a/capiq_data/in_process_data/IQ368278.xlsx
+++ b/capiq_data/in_process_data/IQ368278.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B4F81-AE33-4F21-A6D5-8AAEEC929566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D3A39A-A4BF-45C9-9D16-F51C4B41BDCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"92fd5e24-9c85-4504-b5a8-b0dc143506ae"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e700e68f-75dd-47c6-b279-5f8b2d378396"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-12.714</v>
+        <v>44.814999999999998</v>
       </c>
       <c r="D2">
-        <v>402.31599999999997</v>
+        <v>223.65899999999999</v>
       </c>
       <c r="E2">
-        <v>503.49599999999998</v>
+        <v>118.536</v>
       </c>
       <c r="F2">
-        <v>269.33</v>
+        <v>156.32400000000001</v>
       </c>
       <c r="G2">
-        <v>1695.143</v>
+        <v>399.49299999999999</v>
       </c>
       <c r="H2">
-        <v>13348.263000000001</v>
+        <v>6226.47</v>
       </c>
       <c r="I2">
-        <v>161.59200000000001</v>
+        <v>57.338000000000001</v>
       </c>
       <c r="J2">
-        <v>7786.0010000000002</v>
+        <v>3414.8910000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>304.95</v>
+        <v>134.21100000000001</v>
       </c>
       <c r="O2">
-        <v>8328.4179999999997</v>
+        <v>3601.0279999999998</v>
       </c>
       <c r="P2">
-        <v>7786.0010000000002</v>
+        <v>3414.8910000000001</v>
       </c>
       <c r="Q2">
-        <v>-791.12599999999998</v>
+        <v>268.52699999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="T2">
-        <v>5019.8450000000003</v>
+        <v>2625.442</v>
       </c>
       <c r="U2">
-        <v>478.94799999999998</v>
+        <v>280.95699999999999</v>
       </c>
       <c r="V2">
-        <v>43.039000000000001</v>
+        <v>98.475999999999999</v>
       </c>
       <c r="W2">
-        <v>-81.433000000000007</v>
+        <v>-56.8</v>
       </c>
       <c r="X2">
-        <v>-448.59699999999998</v>
+        <v>478.899</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>21.233000000000001</v>
+        <v>-6.2350000000000003</v>
       </c>
       <c r="AA2">
-        <v>-12.714</v>
+        <v>44.814999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>40.813000000000002</v>
+        <v>47.25</v>
       </c>
       <c r="D3">
-        <v>423.25799999999998</v>
+        <v>228.929</v>
       </c>
       <c r="E3">
-        <v>517.85699999999997</v>
+        <v>122.1</v>
       </c>
       <c r="F3">
-        <v>278.55599999999998</v>
+        <v>158.85900000000001</v>
       </c>
       <c r="G3">
-        <v>2017.0309999999999</v>
+        <v>363.91899999999998</v>
       </c>
       <c r="H3">
-        <v>13835.473</v>
+        <v>6310.0789999999997</v>
       </c>
       <c r="I3">
-        <v>171.61699999999999</v>
+        <v>58.542000000000002</v>
       </c>
       <c r="J3">
-        <v>7215.6189999999997</v>
+        <v>3306.23</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-8.7769999999999992</v>
+        <v>-51.783999999999999</v>
       </c>
       <c r="N3">
-        <v>1064.3510000000001</v>
+        <v>282.70299999999997</v>
       </c>
       <c r="O3">
-        <v>8490.3619999999992</v>
+        <v>3665.65</v>
       </c>
       <c r="P3">
-        <v>7937.2640000000001</v>
+        <v>3450.3470000000002</v>
       </c>
       <c r="Q3">
-        <v>268.35700000000003</v>
+        <v>-39.137999999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5345.1109999999999</v>
+        <v>2644.4290000000001</v>
       </c>
       <c r="U3">
-        <v>747.30499999999995</v>
+        <v>241.81899999999999</v>
       </c>
       <c r="V3">
-        <v>132.28399999999999</v>
+        <v>109.22</v>
       </c>
       <c r="W3">
-        <v>-81.441999999999993</v>
+        <v>-66.108999999999995</v>
       </c>
       <c r="X3">
-        <v>257.10199999999998</v>
+        <v>27.914999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-1.927</v>
+        <v>-1.458</v>
       </c>
       <c r="AA3">
-        <v>40.734999999999999</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>60.136000000000003</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>442.74900000000002</v>
+        <v>251.512</v>
       </c>
       <c r="E4">
-        <v>536.34799999999996</v>
+        <v>130.64099999999999</v>
       </c>
       <c r="F4">
-        <v>291.47399999999999</v>
+        <v>174.87299999999999</v>
       </c>
       <c r="G4">
-        <v>2068.1</v>
+        <v>296.40499999999997</v>
       </c>
       <c r="H4">
-        <v>13884.212</v>
+        <v>7093.2960000000003</v>
       </c>
       <c r="I4">
-        <v>173.25700000000001</v>
+        <v>61.247999999999998</v>
       </c>
       <c r="J4">
-        <v>7434.0810000000001</v>
+        <v>4177.67</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>826.23400000000004</v>
+        <v>151.55600000000001</v>
       </c>
       <c r="O4">
-        <v>8492.0169999999998</v>
+        <v>4401.6360000000004</v>
       </c>
       <c r="P4">
-        <v>7941.643</v>
+        <v>4177.67</v>
       </c>
       <c r="Q4">
-        <v>33.279000000000003</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5392.1949999999997</v>
+        <v>2691.66</v>
       </c>
       <c r="U4">
-        <v>780.58399999999995</v>
+        <v>165.76400000000001</v>
       </c>
       <c r="V4">
-        <v>157.81700000000001</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-83.388000000000005</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-55.460999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-15.653</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>60.213999999999999</v>
+        <v>50.686</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>70.41</v>
+        <v>53.167999999999999</v>
       </c>
       <c r="D5">
-        <v>461.029</v>
+        <v>275.339</v>
       </c>
       <c r="E5">
-        <v>556.39200000000005</v>
+        <v>151.52799999999999</v>
       </c>
       <c r="F5">
-        <v>300.74700000000001</v>
+        <v>194.08</v>
       </c>
       <c r="G5">
-        <v>2120.1439999999998</v>
+        <v>312.53899999999999</v>
       </c>
       <c r="H5">
-        <v>13980.798000000001</v>
+        <v>7193.5209999999997</v>
       </c>
       <c r="I5">
-        <v>172.928</v>
+        <v>71.715999999999994</v>
       </c>
       <c r="J5">
-        <v>7721.91</v>
+        <v>4245.433</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>574.52</v>
+        <v>166.4</v>
       </c>
       <c r="O5">
-        <v>8540.9850000000006</v>
+        <v>4496.9380000000001</v>
       </c>
       <c r="P5">
-        <v>7950.3630000000003</v>
+        <v>4245.433</v>
       </c>
       <c r="Q5">
-        <v>282.44</v>
+        <v>-4.7530000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5439.8130000000001</v>
+        <v>2696.5830000000001</v>
       </c>
       <c r="U5">
-        <v>1063.0239999999999</v>
+        <v>161.011</v>
       </c>
       <c r="V5">
-        <v>152.75800000000001</v>
+        <v>118.699</v>
       </c>
       <c r="W5">
-        <v>-83.771000000000001</v>
+        <v>-72.003</v>
       </c>
       <c r="X5">
-        <v>-30.021999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-1.3480000000000001</v>
+        <v>4.6840000000000002</v>
       </c>
       <c r="AA5">
-        <v>70.542000000000002</v>
+        <v>53.167999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>101.32</v>
+        <v>56.927999999999997</v>
       </c>
       <c r="D6">
-        <v>510.18</v>
+        <v>282.74299999999999</v>
       </c>
       <c r="E6">
-        <v>602.51300000000003</v>
+        <v>163.04</v>
       </c>
       <c r="F6">
-        <v>348.1</v>
+        <v>180.41</v>
       </c>
       <c r="G6">
-        <v>2911.8069999999998</v>
+        <v>305.10300000000001</v>
       </c>
       <c r="H6">
-        <v>14782.966</v>
+        <v>7253.51</v>
       </c>
       <c r="I6">
-        <v>155.13900000000001</v>
+        <v>81.108000000000004</v>
       </c>
       <c r="J6">
-        <v>8704.1380000000008</v>
+        <v>4314.942</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,161 +1224,161 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>316.14499999999998</v>
+        <v>169.749</v>
       </c>
       <c r="O6">
-        <v>9313.7980000000007</v>
+        <v>4554.6970000000001</v>
       </c>
       <c r="P6">
-        <v>8704.1380000000008</v>
+        <v>4314.942</v>
       </c>
       <c r="Q6">
-        <v>760.18399999999997</v>
+        <v>-62.944000000000003</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="T6">
-        <v>5469.1679999999997</v>
+        <v>2698.8130000000001</v>
       </c>
       <c r="U6">
-        <v>1823.2080000000001</v>
+        <v>98.066999999999993</v>
       </c>
       <c r="V6">
-        <v>163.46899999999999</v>
+        <v>98.893000000000001</v>
       </c>
       <c r="W6">
-        <v>-83.995999999999995</v>
+        <v>-72.268000000000001</v>
       </c>
       <c r="X6">
-        <v>656.40899999999999</v>
+        <v>-4.649</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>140.20400000000001</v>
+        <v>-8.923</v>
       </c>
       <c r="AA6">
-        <v>101.32</v>
+        <v>56.927999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>48.454000000000001</v>
+        <v>57.008000000000003</v>
       </c>
       <c r="D7">
-        <v>455.41399999999999</v>
+        <v>268.46899999999999</v>
       </c>
       <c r="E7">
-        <v>609.428</v>
+        <v>170.73099999999999</v>
       </c>
       <c r="F7">
-        <v>291.36900000000003</v>
+        <v>182.17099999999999</v>
       </c>
       <c r="G7">
-        <v>1680.7560000000001</v>
+        <v>271.97300000000001</v>
       </c>
       <c r="H7">
-        <v>14212.857</v>
+        <v>7301.3919999999998</v>
       </c>
       <c r="I7">
-        <v>165.441</v>
+        <v>56.125</v>
       </c>
       <c r="J7">
-        <v>7902.1239999999998</v>
+        <v>4361.2330000000002</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="M7">
-        <v>-657.95299999999997</v>
+        <v>-11.086</v>
       </c>
       <c r="N7">
-        <v>414.55500000000001</v>
+        <v>151.142</v>
       </c>
       <c r="O7">
-        <v>8641.5049999999992</v>
+        <v>4596.4750000000004</v>
       </c>
       <c r="P7">
-        <v>7960.6260000000002</v>
+        <v>4361.2330000000002</v>
       </c>
       <c r="Q7">
-        <v>-1232.0119999999999</v>
+        <v>-27.06</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5571.3519999999999</v>
+        <v>2704.9169999999999</v>
       </c>
       <c r="U7">
-        <v>591.19600000000003</v>
+        <v>71.007000000000005</v>
       </c>
       <c r="V7">
-        <v>169.261</v>
+        <v>107.102</v>
       </c>
       <c r="W7">
-        <v>-92.311999999999998</v>
+        <v>-72.531999999999996</v>
       </c>
       <c r="X7">
-        <v>-641.16300000000001</v>
+        <v>-24.852</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-0.83399999999999996</v>
+        <v>-0.83499999999999996</v>
       </c>
       <c r="AA7">
-        <v>48.454000000000001</v>
+        <v>57.008000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>118.517</v>
+        <v>56.417999999999999</v>
       </c>
       <c r="D8">
-        <v>486.36799999999999</v>
+        <v>282.67200000000003</v>
       </c>
       <c r="E8">
-        <v>603.15300000000002</v>
+        <v>177.398</v>
       </c>
       <c r="F8">
-        <v>324.02999999999997</v>
+        <v>194.148</v>
       </c>
       <c r="G8">
-        <v>2729.2930000000001</v>
+        <v>275.11900000000003</v>
       </c>
       <c r="H8">
-        <v>15280.629000000001</v>
+        <v>7358.6710000000003</v>
       </c>
       <c r="I8">
-        <v>163.49600000000001</v>
+        <v>52.655000000000001</v>
       </c>
       <c r="J8">
-        <v>8900.52</v>
+        <v>4415.7240000000002</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>314.483</v>
+        <v>153.99700000000001</v>
       </c>
       <c r="O8">
-        <v>9523.357</v>
+        <v>4646.4309999999996</v>
       </c>
       <c r="P8">
-        <v>8896.2070000000003</v>
+        <v>4415.7240000000002</v>
       </c>
       <c r="Q8">
-        <v>1080.8009999999999</v>
+        <v>10.632999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5757.2719999999999</v>
+        <v>2712.24</v>
       </c>
       <c r="U8">
-        <v>1671.9970000000001</v>
+        <v>81.64</v>
       </c>
       <c r="V8">
-        <v>161.81899999999999</v>
+        <v>92.165999999999997</v>
       </c>
       <c r="W8">
-        <v>-92.956999999999994</v>
+        <v>-72.856999999999999</v>
       </c>
       <c r="X8">
-        <v>965.28599999999994</v>
+        <v>-17.260000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>2.6930000000000001</v>
+        <v>-2.29</v>
       </c>
       <c r="AA8">
-        <v>118.541</v>
+        <v>56.417999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>57.273000000000003</v>
+        <v>71.667000000000002</v>
       </c>
       <c r="D9">
-        <v>475.51299999999998</v>
+        <v>302.50099999999998</v>
       </c>
       <c r="E9">
-        <v>624.59199999999998</v>
+        <v>205.53399999999999</v>
       </c>
       <c r="F9">
-        <v>301.79399999999998</v>
+        <v>193.85900000000001</v>
       </c>
       <c r="G9">
-        <v>2396.4969999999998</v>
+        <v>273.07900000000001</v>
       </c>
       <c r="H9">
-        <v>15141.942999999999</v>
+        <v>8481.3150000000005</v>
       </c>
       <c r="I9">
-        <v>193.49199999999999</v>
+        <v>69.236000000000004</v>
       </c>
       <c r="J9">
-        <v>8650.8580000000002</v>
+        <v>4422.692</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>385.55399999999997</v>
+        <v>1212.691</v>
       </c>
       <c r="O9">
-        <v>9345.4159999999993</v>
+        <v>5720.79</v>
       </c>
       <c r="P9">
-        <v>8650.8580000000002</v>
+        <v>5466.692</v>
       </c>
       <c r="Q9">
-        <v>-448.78199999999998</v>
+        <v>-52.847000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>5796.527</v>
+        <v>2760.5250000000001</v>
       </c>
       <c r="U9">
-        <v>1223.2149999999999</v>
+        <v>28.792999999999999</v>
       </c>
       <c r="V9">
-        <v>132.60599999999999</v>
+        <v>112.322</v>
       </c>
       <c r="W9">
-        <v>-93.724999999999994</v>
+        <v>-75.391000000000005</v>
       </c>
       <c r="X9">
-        <v>-367.69</v>
+        <v>981.14700000000005</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-0.21099999999999999</v>
+        <v>-0.96899999999999997</v>
       </c>
       <c r="AA9">
-        <v>57.249000000000002</v>
+        <v>71.667000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>65.406000000000006</v>
+        <v>259.29000000000002</v>
       </c>
       <c r="D10">
-        <v>478.96899999999999</v>
+        <v>333.72300000000001</v>
       </c>
       <c r="E10">
-        <v>667.75400000000002</v>
+        <v>185.779</v>
       </c>
       <c r="F10">
-        <v>308.20999999999998</v>
+        <v>218.054</v>
       </c>
       <c r="G10">
-        <v>2242.83</v>
+        <v>300.97500000000002</v>
       </c>
       <c r="H10">
-        <v>15462.321</v>
+        <v>8427.2029999999995</v>
       </c>
       <c r="I10">
-        <v>199.102</v>
+        <v>73.846000000000004</v>
       </c>
       <c r="J10">
-        <v>8912.3690000000006</v>
+        <v>5041.5370000000003</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>105.68300000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,161 +1556,161 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>382.05099999999999</v>
+        <v>285.89600000000002</v>
       </c>
       <c r="O10">
-        <v>9619.0329999999994</v>
+        <v>5423.0320000000002</v>
       </c>
       <c r="P10">
-        <v>8912.3690000000006</v>
+        <v>5147.22</v>
       </c>
       <c r="Q10">
-        <v>-181.23699999999999</v>
+        <v>26.481999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>730</v>
+        <v>675</v>
       </c>
       <c r="T10">
-        <v>5843.2879999999996</v>
+        <v>3004.1709999999998</v>
       </c>
       <c r="U10">
-        <v>1041.9780000000001</v>
+        <v>55.274999999999999</v>
       </c>
       <c r="V10">
-        <v>179.26300000000001</v>
+        <v>125.79</v>
       </c>
       <c r="W10">
-        <v>-93.905000000000001</v>
+        <v>-76.551000000000002</v>
       </c>
       <c r="X10">
-        <v>-102.58</v>
+        <v>-401.92399999999998</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-5.54</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="AA10">
-        <v>65.406000000000006</v>
+        <v>259.29000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>185.04499999999999</v>
       </c>
       <c r="D11">
-        <v>486.54700000000003</v>
+        <v>319.56700000000001</v>
       </c>
       <c r="E11">
-        <v>687.89</v>
+        <v>171.227</v>
       </c>
       <c r="F11">
-        <v>309.99799999999999</v>
+        <v>210.054</v>
       </c>
       <c r="G11">
-        <v>2113.0520000000001</v>
+        <v>606.59299999999996</v>
       </c>
       <c r="H11">
-        <v>15623.279</v>
+        <v>8408.7540000000008</v>
       </c>
       <c r="I11">
-        <v>210.35900000000001</v>
+        <v>63.319000000000003</v>
       </c>
       <c r="J11">
-        <v>8437.4130000000005</v>
+        <v>4923.93</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-183.726</v>
       </c>
       <c r="M11">
-        <v>-23.687000000000001</v>
+        <v>-550.23</v>
       </c>
       <c r="N11">
-        <v>854.84100000000001</v>
+        <v>238.16399999999999</v>
       </c>
       <c r="O11">
-        <v>9608.9369999999999</v>
+        <v>5239.7489999999998</v>
       </c>
       <c r="P11">
-        <v>8871.518</v>
+        <v>4980.1130000000003</v>
       </c>
       <c r="Q11">
-        <v>-132.602</v>
+        <v>329.14299999999997</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>6014.3419999999996</v>
+        <v>3169.0050000000001</v>
       </c>
       <c r="U11">
-        <v>909.37599999999998</v>
+        <v>384.41800000000001</v>
       </c>
       <c r="V11">
-        <v>237.429</v>
+        <v>106.211</v>
       </c>
       <c r="W11">
-        <v>-110.94</v>
+        <v>-76.873000000000005</v>
       </c>
       <c r="X11">
-        <v>62.96</v>
+        <v>-241.84800000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-1.0309999999999999</v>
+        <v>-0.314</v>
       </c>
       <c r="AA11">
-        <v>48</v>
+        <v>185.18899999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>454.85700000000003</v>
+        <v>63.38</v>
       </c>
       <c r="D12">
-        <v>517.55899999999997</v>
+        <v>321.78500000000003</v>
       </c>
       <c r="E12">
-        <v>691.69299999999998</v>
+        <v>181.77099999999999</v>
       </c>
       <c r="F12">
-        <v>333.67099999999999</v>
+        <v>214.53700000000001</v>
       </c>
       <c r="G12">
-        <v>2534.9940000000001</v>
+        <v>380.63499999999999</v>
       </c>
       <c r="H12">
-        <v>19462.784</v>
+        <v>8276.2090000000007</v>
       </c>
       <c r="I12">
-        <v>212.99799999999999</v>
+        <v>49.298999999999999</v>
       </c>
       <c r="J12">
-        <v>10775.968000000001</v>
+        <v>4796.8590000000004</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1236.6759999999999</v>
+        <v>211.84</v>
       </c>
       <c r="O12">
-        <v>12569.374</v>
+        <v>5085.1469999999999</v>
       </c>
       <c r="P12">
-        <v>11545.545</v>
+        <v>4819.2820000000002</v>
       </c>
       <c r="Q12">
-        <v>699.35500000000002</v>
+        <v>-225.83099999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6893.41</v>
+        <v>3191.0619999999999</v>
       </c>
       <c r="U12">
-        <v>1608.731</v>
+        <v>158.58699999999999</v>
       </c>
       <c r="V12">
-        <v>97.409000000000006</v>
+        <v>143.63200000000001</v>
       </c>
       <c r="W12">
-        <v>-112.511</v>
+        <v>-76.918999999999997</v>
       </c>
       <c r="X12">
-        <v>621.25699999999995</v>
+        <v>-288.60199999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>201.07499999999999</v>
+        <v>-0.45600000000000002</v>
       </c>
       <c r="AA12">
-        <v>455.03500000000003</v>
+        <v>63.235999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>155.41499999999999</v>
+        <v>56.642000000000003</v>
       </c>
       <c r="D13">
-        <v>574.63</v>
+        <v>328.34399999999999</v>
       </c>
       <c r="E13">
-        <v>696.43399999999997</v>
+        <v>196.876</v>
       </c>
       <c r="F13">
-        <v>367.99599999999998</v>
+        <v>209.50800000000001</v>
       </c>
       <c r="G13">
-        <v>2629.8960000000002</v>
+        <v>319.50099999999998</v>
       </c>
       <c r="H13">
-        <v>19519.707999999999</v>
+        <v>8408.6550000000007</v>
       </c>
       <c r="I13">
-        <v>215.77799999999999</v>
+        <v>69.94</v>
       </c>
       <c r="J13">
-        <v>10794.833000000001</v>
+        <v>4920.3429999999998</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1249.0940000000001</v>
+        <v>197.922</v>
       </c>
       <c r="O13">
-        <v>12611.391</v>
+        <v>5197.3819999999996</v>
       </c>
       <c r="P13">
-        <v>11534.369000000001</v>
+        <v>4920.3429999999998</v>
       </c>
       <c r="Q13">
-        <v>32.543999999999997</v>
+        <v>-120.96599999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6908.317</v>
+        <v>3211.2730000000001</v>
       </c>
       <c r="U13">
-        <v>1641.2750000000001</v>
+        <v>37.621000000000002</v>
       </c>
       <c r="V13">
-        <v>215.583</v>
+        <v>89.186999999999998</v>
       </c>
       <c r="W13">
-        <v>-113.989</v>
+        <v>-80.197000000000003</v>
       </c>
       <c r="X13">
-        <v>-181.89599999999999</v>
+        <v>-111.898</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>21.69</v>
+        <v>-3.4590000000000001</v>
       </c>
       <c r="AA13">
-        <v>155.32400000000001</v>
+        <v>56.97</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>91.539000000000001</v>
+        <v>60.255000000000003</v>
       </c>
       <c r="D14">
-        <v>578.83699999999999</v>
+        <v>333.79</v>
       </c>
       <c r="E14">
-        <v>711.06700000000001</v>
+        <v>208.27699999999999</v>
       </c>
       <c r="F14">
-        <v>372.76100000000002</v>
+        <v>219.495</v>
       </c>
       <c r="G14">
-        <v>3317.8820000000001</v>
+        <v>291.63400000000001</v>
       </c>
       <c r="H14">
-        <v>20176.263999999999</v>
+        <v>8551.1</v>
       </c>
       <c r="I14">
-        <v>202.47</v>
+        <v>92.025999999999996</v>
       </c>
       <c r="J14">
-        <v>10776.628000000001</v>
+        <v>5004.72</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1612.115</v>
+        <v>227.52600000000001</v>
       </c>
       <c r="O14">
-        <v>12981.725</v>
+        <v>5320.8040000000001</v>
       </c>
       <c r="P14">
-        <v>11521.508</v>
+        <v>5004.72</v>
       </c>
       <c r="Q14">
-        <v>723.86199999999997</v>
+        <v>-14.935</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>760</v>
+        <v>662</v>
       </c>
       <c r="T14">
-        <v>7194.5389999999998</v>
+        <v>3230.2959999999998</v>
       </c>
       <c r="U14">
-        <v>2365.1370000000002</v>
+        <v>22.686</v>
       </c>
       <c r="V14">
-        <v>227.505</v>
+        <v>149.245</v>
       </c>
       <c r="W14">
-        <v>-113.678</v>
+        <v>-79.822000000000003</v>
       </c>
       <c r="X14">
-        <v>575.55200000000002</v>
+        <v>23.988</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>2.57</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="AA14">
-        <v>91.539000000000001</v>
+        <v>60.255000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>56.622999999999998</v>
+        <v>66.048000000000002</v>
       </c>
       <c r="D15">
-        <v>577.31899999999996</v>
+        <v>325.37799999999999</v>
       </c>
       <c r="E15">
-        <v>699.54200000000003</v>
+        <v>217.566</v>
       </c>
       <c r="F15">
-        <v>363.697</v>
+        <v>213.578</v>
       </c>
       <c r="G15">
-        <v>2111.8429999999998</v>
+        <v>481.38400000000001</v>
       </c>
       <c r="H15">
-        <v>18979.567999999999</v>
+        <v>8837.0349999999999</v>
       </c>
       <c r="I15">
-        <v>218.02799999999999</v>
+        <v>110.002</v>
       </c>
       <c r="J15">
-        <v>10757.135</v>
+        <v>4874.7259999999997</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-203</v>
       </c>
       <c r="M15">
-        <v>-661.15099999999995</v>
+        <v>-122.523</v>
       </c>
       <c r="N15">
-        <v>511.47800000000001</v>
+        <v>277.18700000000001</v>
       </c>
       <c r="O15">
-        <v>11825.385</v>
+        <v>5237.72</v>
       </c>
       <c r="P15">
-        <v>10757.135</v>
+        <v>4910.7610000000004</v>
       </c>
       <c r="Q15">
-        <v>-1185.5640000000001</v>
+        <v>159.465</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>7154.183</v>
+        <v>3599.3150000000001</v>
       </c>
       <c r="U15">
-        <v>1179.5730000000001</v>
+        <v>182.15100000000001</v>
       </c>
       <c r="V15">
-        <v>124.209</v>
+        <v>87.86</v>
       </c>
       <c r="W15">
-        <v>-496.33</v>
+        <v>-80.739000000000004</v>
       </c>
       <c r="X15">
-        <v>-1162.701</v>
+        <v>122.84099999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.98599999999999999</v>
+        <v>-0.32100000000000001</v>
       </c>
       <c r="AA15">
-        <v>56.622999999999998</v>
+        <v>66.048000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>79.177999999999997</v>
+        <v>87.013000000000005</v>
       </c>
       <c r="D16">
-        <v>592.37199999999996</v>
+        <v>342.90899999999999</v>
       </c>
       <c r="E16">
-        <v>724.93499999999995</v>
+        <v>227.173</v>
       </c>
       <c r="F16">
-        <v>381.75</v>
+        <v>228.48400000000001</v>
       </c>
       <c r="G16">
-        <v>1953.7940000000001</v>
+        <v>516.14700000000005</v>
       </c>
       <c r="H16">
-        <v>18898.532999999999</v>
+        <v>8982.2669999999998</v>
       </c>
       <c r="I16">
-        <v>216.08</v>
+        <v>91.79</v>
       </c>
       <c r="J16">
-        <v>10675.609</v>
+        <v>4729.17</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>547.524</v>
+        <v>498.99099999999999</v>
       </c>
       <c r="O16">
-        <v>11762.849</v>
+        <v>5322.1059999999998</v>
       </c>
       <c r="P16">
-        <v>10738.609</v>
+        <v>4994.7030000000004</v>
       </c>
       <c r="Q16">
-        <v>-142.99700000000001</v>
+        <v>45.546999999999997</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7135.6840000000002</v>
+        <v>3660.1610000000001</v>
       </c>
       <c r="U16">
-        <v>1036.576</v>
+        <v>227.69800000000001</v>
       </c>
       <c r="V16">
-        <v>184.78399999999999</v>
+        <v>122.726</v>
       </c>
       <c r="W16">
-        <v>-116.282</v>
+        <v>-85.108000000000004</v>
       </c>
       <c r="X16">
-        <v>-128.28200000000001</v>
+        <v>-61.311999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-47.762</v>
+        <v>-0.39300000000000002</v>
       </c>
       <c r="AA16">
-        <v>79.144999999999996</v>
+        <v>87.117999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>130.52500000000001</v>
+        <v>68.608999999999995</v>
       </c>
       <c r="D17">
-        <v>623.00300000000004</v>
+        <v>358.68900000000002</v>
       </c>
       <c r="E17">
-        <v>733.09500000000003</v>
+        <v>245.07900000000001</v>
       </c>
       <c r="F17">
-        <v>398.83699999999999</v>
+        <v>236.226</v>
       </c>
       <c r="G17">
-        <v>1951.9939999999999</v>
+        <v>540.39099999999996</v>
       </c>
       <c r="H17">
-        <v>18875.16</v>
+        <v>9012.4140000000007</v>
       </c>
       <c r="I17">
-        <v>253.6</v>
+        <v>88.123999999999995</v>
       </c>
       <c r="J17">
-        <v>10655.75</v>
+        <v>5016.0690000000004</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>548.26199999999994</v>
+        <v>220.07300000000001</v>
       </c>
       <c r="O17">
-        <v>11721.44</v>
+        <v>5328.8829999999998</v>
       </c>
       <c r="P17">
-        <v>10655.75</v>
+        <v>5016.0690000000004</v>
       </c>
       <c r="Q17">
-        <v>-189.91200000000001</v>
+        <v>-13.824999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>7153.72</v>
+        <v>3683.5309999999999</v>
       </c>
       <c r="U17">
-        <v>846.66399999999999</v>
+        <v>213.87299999999999</v>
       </c>
       <c r="V17">
-        <v>160.684</v>
+        <v>93.078000000000003</v>
       </c>
       <c r="W17">
-        <v>-113.702</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-208.911</v>
+        <v>-54.362000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.08</v>
+        <v>-5.2</v>
       </c>
       <c r="AA17">
-        <v>130.37100000000001</v>
+        <v>68.542000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>177.285</v>
+        <v>62.347000000000001</v>
       </c>
       <c r="D18">
-        <v>616.21699999999998</v>
+        <v>352.411</v>
       </c>
       <c r="E18">
-        <v>738.59400000000005</v>
+        <v>276.73599999999999</v>
       </c>
       <c r="F18">
-        <v>396.96100000000001</v>
+        <v>235.12</v>
       </c>
       <c r="G18">
-        <v>3153.4259999999999</v>
+        <v>579.46500000000003</v>
       </c>
       <c r="H18">
-        <v>19886.767</v>
+        <v>9063.2279999999992</v>
       </c>
       <c r="I18">
-        <v>243.26300000000001</v>
+        <v>94.450999999999993</v>
       </c>
       <c r="J18">
-        <v>10086.984</v>
+        <v>5011.8140000000003</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1289.2670000000001</v>
+        <v>236.54900000000001</v>
       </c>
       <c r="O18">
-        <v>11878.505999999999</v>
+        <v>5340.8270000000002</v>
       </c>
       <c r="P18">
-        <v>10086.984</v>
+        <v>5011.8140000000003</v>
       </c>
       <c r="Q18">
-        <v>916.41499999999996</v>
+        <v>25.471</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T18">
-        <v>8008.2610000000004</v>
+        <v>3722.4009999999998</v>
       </c>
       <c r="U18">
-        <v>1763.079</v>
+        <v>239.34399999999999</v>
       </c>
       <c r="V18">
-        <v>225.876</v>
+        <v>125.842</v>
       </c>
       <c r="W18">
-        <v>-113.95</v>
+        <v>-88.584000000000003</v>
       </c>
       <c r="X18">
-        <v>867.40700000000004</v>
+        <v>-49.000999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-3.673</v>
+        <v>4.97</v>
       </c>
       <c r="AA18">
-        <v>177.285</v>
+        <v>62.347000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>173.77099999999999</v>
+        <v>61.241999999999997</v>
       </c>
       <c r="D19">
-        <v>633.11800000000005</v>
+        <v>353.97699999999998</v>
       </c>
       <c r="E19">
-        <v>761.64200000000005</v>
+        <v>299.47699999999998</v>
       </c>
       <c r="F19">
-        <v>403.86500000000001</v>
+        <v>234.684</v>
       </c>
       <c r="G19">
-        <v>2580.241</v>
+        <v>597.47</v>
       </c>
       <c r="H19">
-        <v>19179.071</v>
+        <v>9097.991</v>
       </c>
       <c r="I19">
-        <v>224.08600000000001</v>
+        <v>105.009</v>
       </c>
       <c r="J19">
-        <v>10039.375</v>
+        <v>4745.067</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-7.66</v>
+        <v>-13.331</v>
       </c>
       <c r="N19">
-        <v>554.36599999999999</v>
+        <v>504.20400000000001</v>
       </c>
       <c r="O19">
-        <v>11073.97</v>
+        <v>5383.9870000000001</v>
       </c>
       <c r="P19">
-        <v>10070.228999999999</v>
+        <v>5011.0159999999996</v>
       </c>
       <c r="Q19">
-        <v>-698.68299999999999</v>
+        <v>-30.036999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>8105.1009999999997</v>
+        <v>3714.0039999999999</v>
       </c>
       <c r="U19">
-        <v>1064.396</v>
+        <v>209.30699999999999</v>
       </c>
       <c r="V19">
-        <v>201.446</v>
+        <v>83.647000000000006</v>
       </c>
       <c r="W19">
-        <v>-883.68399999999997</v>
+        <v>-89.429000000000002</v>
       </c>
       <c r="X19">
-        <v>-902.85400000000004</v>
+        <v>-55.491</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>21.199000000000002</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="AA19">
-        <v>173.77099999999999</v>
+        <v>61.241999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>82.13</v>
+        <v>165.482</v>
       </c>
       <c r="D20">
-        <v>621.12300000000005</v>
+        <v>355.86599999999999</v>
       </c>
       <c r="E20">
-        <v>785.98</v>
+        <v>308.48700000000002</v>
       </c>
       <c r="F20">
-        <v>397.95600000000002</v>
+        <v>236.916</v>
       </c>
       <c r="G20">
-        <v>2499.2820000000002</v>
+        <v>887.78800000000001</v>
       </c>
       <c r="H20">
-        <v>19113.958999999999</v>
+        <v>9124.6239999999998</v>
       </c>
       <c r="I20">
-        <v>231.9</v>
+        <v>92.649000000000001</v>
       </c>
       <c r="J20">
-        <v>10017.123</v>
+        <v>4564.4279999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>553.67600000000004</v>
+        <v>570.31899999999996</v>
       </c>
       <c r="O20">
-        <v>11019.279</v>
+        <v>5267.174</v>
       </c>
       <c r="P20">
-        <v>10047.459000000001</v>
+        <v>4898.7569999999996</v>
       </c>
       <c r="Q20">
-        <v>278.35500000000002</v>
+        <v>297.875</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>8094.68</v>
+        <v>3857.45</v>
       </c>
       <c r="U20">
-        <v>1342.751</v>
+        <v>507.18200000000002</v>
       </c>
       <c r="V20">
-        <v>241.63</v>
+        <v>121.32899999999999</v>
       </c>
       <c r="W20">
-        <v>-114.15600000000001</v>
+        <v>-89.463999999999999</v>
       </c>
       <c r="X20">
-        <v>-139.715</v>
+        <v>-174.39699999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-12.786</v>
+        <v>-28.699000000000002</v>
       </c>
       <c r="AA20">
-        <v>82.078000000000003</v>
+        <v>165.608</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>186.655</v>
+        <v>57.677</v>
       </c>
       <c r="D21">
-        <v>632.36500000000001</v>
+        <v>355.46899999999999</v>
       </c>
       <c r="E21">
-        <v>803.59100000000001</v>
+        <v>324.75200000000001</v>
       </c>
       <c r="F21">
-        <v>404.19</v>
+        <v>232.09700000000001</v>
       </c>
       <c r="G21">
-        <v>2424.453</v>
+        <v>866.74</v>
       </c>
       <c r="H21">
-        <v>18980.262999999999</v>
+        <v>9183.8880000000008</v>
       </c>
       <c r="I21">
-        <v>245.2</v>
+        <v>81.73</v>
       </c>
       <c r="J21">
-        <v>9898.0679999999993</v>
+        <v>4824.4799999999996</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>588.83799999999997</v>
+        <v>661.99699999999996</v>
       </c>
       <c r="O21">
-        <v>10917.504000000001</v>
+        <v>5624.0029999999997</v>
       </c>
       <c r="P21">
-        <v>9927.8780000000006</v>
+        <v>4921.8670000000002</v>
       </c>
       <c r="Q21">
-        <v>44.256</v>
+        <v>-56.604999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>8062.759</v>
+        <v>3559.8850000000002</v>
       </c>
       <c r="U21">
-        <v>1387.0070000000001</v>
+        <v>450.577</v>
       </c>
       <c r="V21">
-        <v>165.80199999999999</v>
+        <v>99.697000000000003</v>
       </c>
       <c r="W21">
-        <v>-114.179</v>
+        <v>-94.103999999999999</v>
       </c>
       <c r="X21">
-        <v>-341.18200000000002</v>
+        <v>-51.621000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-6.0810000000000004</v>
+        <v>-13.843999999999999</v>
       </c>
       <c r="AA21">
-        <v>186.72900000000001</v>
+        <v>57.551000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>140.55000000000001</v>
+        <v>153.89099999999999</v>
       </c>
       <c r="D22">
-        <v>626.24599999999998</v>
+        <v>365.137</v>
       </c>
       <c r="E22">
-        <v>852.74800000000005</v>
+        <v>355.024</v>
       </c>
       <c r="F22">
-        <v>401.24599999999998</v>
+        <v>236.72800000000001</v>
       </c>
       <c r="G22">
-        <v>1835.374</v>
+        <v>683.399</v>
       </c>
       <c r="H22">
-        <v>18351.486000000001</v>
+        <v>8902.3680000000004</v>
       </c>
       <c r="I22">
-        <v>274.709</v>
+        <v>102.723</v>
       </c>
       <c r="J22">
-        <v>9201.2090000000007</v>
+        <v>4826.2539999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>792.41499999999996</v>
+        <v>265.37700000000001</v>
       </c>
       <c r="O22">
-        <v>10464.558999999999</v>
+        <v>5245.7539999999999</v>
       </c>
       <c r="P22">
-        <v>9201.2090000000007</v>
+        <v>4826.2539999999999</v>
       </c>
       <c r="Q22">
-        <v>-663.28899999999999</v>
+        <v>-189.08099999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>765</v>
+        <v>673</v>
       </c>
       <c r="T22">
-        <v>7886.9269999999997</v>
+        <v>3656.614</v>
       </c>
       <c r="U22">
-        <v>723.71799999999996</v>
+        <v>261.49599999999998</v>
       </c>
       <c r="V22">
-        <v>190.53299999999999</v>
+        <v>167.57599999999999</v>
       </c>
       <c r="W22">
-        <v>-114.18</v>
+        <v>-94.292000000000002</v>
       </c>
       <c r="X22">
-        <v>-174.79499999999999</v>
+        <v>-525.19299999999998</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-684.92100000000005</v>
+        <v>41.48</v>
       </c>
       <c r="AA22">
-        <v>140.55000000000001</v>
+        <v>153.89099999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>184.36500000000001</v>
+        <v>67.736999999999995</v>
       </c>
       <c r="D23">
-        <v>667.58399999999995</v>
+        <v>346.88099999999997</v>
       </c>
       <c r="E23">
-        <v>841.62300000000005</v>
+        <v>357.50599999999997</v>
       </c>
       <c r="F23">
-        <v>440.75299999999999</v>
+        <v>229.76599999999999</v>
       </c>
       <c r="G23">
-        <v>2655.4490000000001</v>
+        <v>505.08100000000002</v>
       </c>
       <c r="H23">
-        <v>19175.830000000002</v>
+        <v>8690.4009999999998</v>
       </c>
       <c r="I23">
-        <v>252.727</v>
+        <v>86.938000000000002</v>
       </c>
       <c r="J23">
-        <v>10017.512000000001</v>
+        <v>4585.6409999999996</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-213</v>
       </c>
       <c r="M23">
-        <v>-7.0460000000000003</v>
+        <v>-131.91999999999999</v>
       </c>
       <c r="N23">
-        <v>799.18600000000004</v>
+        <v>332.62299999999999</v>
       </c>
       <c r="O23">
-        <v>11246.04</v>
+        <v>5016.5600000000004</v>
       </c>
       <c r="P23">
-        <v>10229.314</v>
+        <v>4696.7129999999997</v>
       </c>
       <c r="Q23">
-        <v>881.96</v>
+        <v>-229.28200000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7929.79</v>
+        <v>3673.8409999999999</v>
       </c>
       <c r="U23">
-        <v>1605.6780000000001</v>
+        <v>32.213999999999999</v>
       </c>
       <c r="V23">
-        <v>348.98</v>
+        <v>82.974999999999994</v>
       </c>
       <c r="W23">
-        <v>-328.56700000000001</v>
+        <v>-106.771</v>
       </c>
       <c r="X23">
-        <v>642.33699999999999</v>
+        <v>-233.047</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-10.653</v>
+        <v>-7.2910000000000004</v>
       </c>
       <c r="AA23">
-        <v>184.36500000000001</v>
+        <v>66.873000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>99.165000000000006</v>
+        <v>624.86699999999996</v>
       </c>
       <c r="D24">
-        <v>625.59799999999996</v>
+        <v>351.03399999999999</v>
       </c>
       <c r="E24">
-        <v>861.67700000000002</v>
+        <v>334.12</v>
       </c>
       <c r="F24">
-        <v>398.76900000000001</v>
+        <v>235.78800000000001</v>
       </c>
       <c r="G24">
-        <v>2251.5970000000002</v>
+        <v>1677.934</v>
       </c>
       <c r="H24">
-        <v>18963.965</v>
+        <v>9710.5159999999996</v>
       </c>
       <c r="I24">
-        <v>287.464</v>
+        <v>90.748000000000005</v>
       </c>
       <c r="J24">
-        <v>9658.7000000000007</v>
+        <v>4721.8760000000002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>999.39300000000003</v>
+        <v>348.28699999999998</v>
       </c>
       <c r="O24">
-        <v>11065.745999999999</v>
+        <v>5316.2049999999999</v>
       </c>
       <c r="P24">
-        <v>10035.383</v>
+        <v>4833.4009999999998</v>
       </c>
       <c r="Q24">
-        <v>-425.63400000000001</v>
+        <v>338.18200000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7898.2190000000001</v>
+        <v>4394.3109999999997</v>
       </c>
       <c r="U24">
-        <v>1180.0440000000001</v>
+        <v>370.39600000000002</v>
       </c>
       <c r="V24">
-        <v>235.17099999999999</v>
+        <v>173.73500000000001</v>
       </c>
       <c r="W24">
-        <v>-114.334</v>
+        <v>-94.665000000000006</v>
       </c>
       <c r="X24">
-        <v>-344.57</v>
+        <v>338.95800000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-16.045000000000002</v>
+        <v>-282.33999999999997</v>
       </c>
       <c r="AA24">
-        <v>99.186000000000007</v>
+        <v>626.15800000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>79.38</v>
+        <v>108.389</v>
       </c>
       <c r="D25">
-        <v>628.40700000000004</v>
+        <v>313.69099999999997</v>
       </c>
       <c r="E25">
-        <v>861.827</v>
+        <v>352.68799999999999</v>
       </c>
       <c r="F25">
-        <v>391.48</v>
+        <v>196.17599999999999</v>
       </c>
       <c r="G25">
-        <v>1521.8230000000001</v>
+        <v>1495.183</v>
       </c>
       <c r="H25">
-        <v>18789.899000000001</v>
+        <v>9777.509</v>
       </c>
       <c r="I25">
-        <v>312.97899999999998</v>
+        <v>103.581</v>
       </c>
       <c r="J25">
-        <v>9855.3269999999993</v>
+        <v>4721.9790000000003</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>660.64499999999998</v>
+        <v>256.23500000000001</v>
       </c>
       <c r="O25">
-        <v>10930.646000000001</v>
+        <v>5214.5640000000003</v>
       </c>
       <c r="P25">
-        <v>9855.3269999999993</v>
+        <v>4733.3230000000003</v>
       </c>
       <c r="Q25">
-        <v>-760.721</v>
+        <v>678.63</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7859.2529999999997</v>
+        <v>4562.9449999999997</v>
       </c>
       <c r="U25">
-        <v>419.32299999999998</v>
+        <v>1049.0260000000001</v>
       </c>
       <c r="V25">
-        <v>159.63399999999999</v>
+        <v>126.327</v>
       </c>
       <c r="W25">
-        <v>-114.361</v>
+        <v>-94.599000000000004</v>
       </c>
       <c r="X25">
-        <v>-241.56299999999999</v>
+        <v>-193.09399999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-521.21299999999997</v>
+        <v>31.097999999999999</v>
       </c>
       <c r="AA25">
-        <v>79.341999999999999</v>
+        <v>107.962</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>149.875</v>
+        <v>72.641999999999996</v>
       </c>
       <c r="D26">
-        <v>639.10400000000004</v>
+        <v>393.851</v>
       </c>
       <c r="E26">
-        <v>891.68600000000004</v>
+        <v>384.38900000000001</v>
       </c>
       <c r="F26">
-        <v>406.07</v>
+        <v>281.05599999999998</v>
       </c>
       <c r="G26">
-        <v>1441.44</v>
+        <v>1176.829</v>
       </c>
       <c r="H26">
-        <v>18851.643</v>
+        <v>9695.0220000000008</v>
       </c>
       <c r="I26">
-        <v>298.32400000000001</v>
+        <v>102.934</v>
       </c>
       <c r="J26">
-        <v>9497.8130000000001</v>
+        <v>4600.9369999999999</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,161 +2884,161 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>979.85799999999995</v>
+        <v>1008.2670000000001</v>
       </c>
       <c r="O26">
-        <v>10919.718999999999</v>
+        <v>5848.2879999999996</v>
       </c>
       <c r="P26">
-        <v>9804.9060000000009</v>
+        <v>4600.9369999999999</v>
       </c>
       <c r="Q26">
-        <v>-62.408999999999999</v>
+        <v>-323.238</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>785</v>
+        <v>650</v>
       </c>
       <c r="T26">
-        <v>7931.924</v>
+        <v>3846.7339999999999</v>
       </c>
       <c r="U26">
-        <v>356.91399999999999</v>
+        <v>725.78800000000001</v>
       </c>
       <c r="V26">
-        <v>293.089</v>
+        <v>144.94200000000001</v>
       </c>
       <c r="W26">
-        <v>-114.364</v>
+        <v>-95.578000000000003</v>
       </c>
       <c r="X26">
-        <v>-130.82499999999999</v>
+        <v>-206.26</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>47.101999999999997</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="AA26">
-        <v>149.875</v>
+        <v>72.641999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>99.707999999999998</v>
+        <v>854.30700000000002</v>
       </c>
       <c r="D27">
-        <v>636.55100000000004</v>
+        <v>344.68</v>
       </c>
       <c r="E27">
-        <v>885.13599999999997</v>
+        <v>339.62299999999999</v>
       </c>
       <c r="F27">
-        <v>401.13900000000001</v>
+        <v>225.79499999999999</v>
       </c>
       <c r="G27">
-        <v>1390.2239999999999</v>
+        <v>2440.1889999999999</v>
       </c>
       <c r="H27">
-        <v>18966.627</v>
+        <v>11085.74</v>
       </c>
       <c r="I27">
-        <v>313.72300000000001</v>
+        <v>101.188</v>
       </c>
       <c r="J27">
-        <v>8260.6579999999994</v>
+        <v>5700.96</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-185</v>
       </c>
       <c r="M27">
-        <v>-75.540000000000006</v>
+        <v>-714.57899999999995</v>
       </c>
       <c r="N27">
-        <v>2345.6770000000001</v>
+        <v>290.56799999999998</v>
       </c>
       <c r="O27">
-        <v>11044.189</v>
+        <v>6221.1940000000004</v>
       </c>
       <c r="P27">
-        <v>9895.48</v>
+        <v>5736.1390000000001</v>
       </c>
       <c r="Q27">
-        <v>-65.905000000000001</v>
+        <v>1290.548</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7922.4380000000001</v>
+        <v>4864.5460000000003</v>
       </c>
       <c r="U27">
-        <v>302.93900000000002</v>
+        <v>2016.336</v>
       </c>
       <c r="V27">
-        <v>239.852</v>
+        <v>125.176</v>
       </c>
       <c r="W27">
-        <v>-131.55500000000001</v>
+        <v>-845.5</v>
       </c>
       <c r="X27">
-        <v>-37.933999999999997</v>
+        <v>219.89599999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-18.940999999999999</v>
+        <v>-9.7170000000000005</v>
       </c>
       <c r="AA27">
-        <v>99.707999999999998</v>
+        <v>855.58600000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>136.30600000000001</v>
+        <v>103.623</v>
       </c>
       <c r="D28">
-        <v>661.25099999999998</v>
+        <v>363.27600000000001</v>
       </c>
       <c r="E28">
-        <v>908.70899999999995</v>
+        <v>344.822</v>
       </c>
       <c r="F28">
-        <v>422.09399999999999</v>
+        <v>243.86099999999999</v>
       </c>
       <c r="G28">
-        <v>1542.4739999999999</v>
+        <v>2299.9789999999998</v>
       </c>
       <c r="H28">
-        <v>19281.761999999999</v>
+        <v>10994.602000000001</v>
       </c>
       <c r="I28">
-        <v>303.55900000000003</v>
+        <v>123.91</v>
       </c>
       <c r="J28">
-        <v>10234.084000000001</v>
+        <v>5138.7780000000002</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>521.71799999999996</v>
+        <v>760.03099999999995</v>
       </c>
       <c r="O28">
-        <v>11208.41</v>
+        <v>6100.2150000000001</v>
       </c>
       <c r="P28">
-        <v>10236.638999999999</v>
+        <v>5619.6019999999999</v>
       </c>
       <c r="Q28">
-        <v>185.59700000000001</v>
+        <v>-131.018</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8073.3519999999999</v>
+        <v>4894.3869999999997</v>
       </c>
       <c r="U28">
-        <v>492.435</v>
+        <v>1885.318</v>
       </c>
       <c r="V28">
-        <v>124.95699999999999</v>
+        <v>186.68</v>
       </c>
       <c r="W28">
-        <v>-131.666</v>
+        <v>-105.369</v>
       </c>
       <c r="X28">
-        <v>340.495</v>
+        <v>-249.85300000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-23.745000000000001</v>
+        <v>14.984</v>
       </c>
       <c r="AA28">
-        <v>136.334</v>
+        <v>102.51600000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>119.947</v>
+        <v>242.542</v>
       </c>
       <c r="D29">
-        <v>660.62099999999998</v>
+        <v>344.89299999999997</v>
       </c>
       <c r="E29">
-        <v>915.16499999999996</v>
+        <v>342.28100000000001</v>
       </c>
       <c r="F29">
-        <v>414.59399999999999</v>
+        <v>225.11199999999999</v>
       </c>
       <c r="G29">
-        <v>1636.816</v>
+        <v>2309.9720000000002</v>
       </c>
       <c r="H29">
-        <v>19308.518</v>
+        <v>10985.620999999999</v>
       </c>
       <c r="I29">
-        <v>325.44</v>
+        <v>120.792</v>
       </c>
       <c r="J29">
-        <v>10234.634</v>
+        <v>5045.3419999999996</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>554.97400000000005</v>
+        <v>627.54100000000005</v>
       </c>
       <c r="O29">
-        <v>11208.823</v>
+        <v>5884.1189999999997</v>
       </c>
       <c r="P29">
-        <v>10234.634</v>
+        <v>5409.268</v>
       </c>
       <c r="Q29">
-        <v>37.054000000000002</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8099.6949999999997</v>
+        <v>5101.5020000000004</v>
       </c>
       <c r="U29">
-        <v>493.05500000000001</v>
+        <v>1894.1980000000001</v>
       </c>
       <c r="V29">
-        <v>220.15600000000001</v>
+        <v>141.267</v>
       </c>
       <c r="W29">
-        <v>-131.679</v>
+        <v>-96.262</v>
       </c>
       <c r="X29">
-        <v>-136.88499999999999</v>
+        <v>-308.46499999999997</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>202.36099999999999</v>
+        <v>-10.582000000000001</v>
       </c>
       <c r="AA29">
-        <v>119.962</v>
+        <v>242.37</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>106.47799999999999</v>
+        <v>124.218</v>
       </c>
       <c r="D30">
-        <v>662.09199999999998</v>
+        <v>360.16199999999998</v>
       </c>
       <c r="E30">
-        <v>953.76099999999997</v>
+        <v>358.66800000000001</v>
       </c>
       <c r="F30">
-        <v>419.98399999999998</v>
+        <v>234.63800000000001</v>
       </c>
       <c r="G30">
-        <v>1537.1010000000001</v>
+        <v>2082.9940000000001</v>
       </c>
       <c r="H30">
-        <v>19372.233</v>
+        <v>11192.637000000001</v>
       </c>
       <c r="I30">
-        <v>331.5</v>
+        <v>141.86500000000001</v>
       </c>
       <c r="J30">
-        <v>10271.611000000001</v>
+        <v>5492.1660000000002</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>554.18600000000004</v>
+        <v>1141.222</v>
       </c>
       <c r="O30">
-        <v>11269.777</v>
+        <v>6869.92</v>
       </c>
       <c r="P30">
-        <v>10271.611000000001</v>
+        <v>5492.1660000000002</v>
       </c>
       <c r="Q30">
-        <v>-71.465000000000003</v>
+        <v>-387.27699999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>740</v>
+        <v>660</v>
       </c>
       <c r="T30">
-        <v>8102.4560000000001</v>
+        <v>4322.7169999999996</v>
       </c>
       <c r="U30">
-        <v>434.767</v>
+        <v>1506.921</v>
       </c>
       <c r="V30">
-        <v>327.01400000000001</v>
+        <v>176.255</v>
       </c>
       <c r="W30">
-        <v>-131.678</v>
+        <v>-96.338999999999999</v>
       </c>
       <c r="X30">
-        <v>-110.33</v>
+        <v>-86.754000000000005</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-19.359000000000002</v>
+        <v>-25.059000000000001</v>
       </c>
       <c r="AA30">
-        <v>106.47799999999999</v>
+        <v>124.218</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>178.64599999999999</v>
+        <v>84.481999999999999</v>
       </c>
       <c r="D31">
-        <v>660.09199999999998</v>
+        <v>359.822</v>
       </c>
       <c r="E31">
-        <v>962.30799999999999</v>
+        <v>347.59100000000001</v>
       </c>
       <c r="F31">
-        <v>411.66899999999998</v>
+        <v>236.19200000000001</v>
       </c>
       <c r="G31">
-        <v>1564.693</v>
+        <v>1351.231</v>
       </c>
       <c r="H31">
-        <v>19583.938999999998</v>
+        <v>10349.486999999999</v>
       </c>
       <c r="I31">
-        <v>355.00200000000001</v>
+        <v>126.465</v>
       </c>
       <c r="J31">
-        <v>10339.313</v>
+        <v>4955.2690000000002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-195.78</v>
+        <v>-32.262</v>
       </c>
       <c r="N31">
-        <v>590.39599999999996</v>
+        <v>853.83699999999999</v>
       </c>
       <c r="O31">
-        <v>11399.849</v>
+        <v>6030.5379999999996</v>
       </c>
       <c r="P31">
-        <v>10339.313</v>
+        <v>5527.8320000000003</v>
       </c>
       <c r="Q31">
-        <v>-50.24</v>
+        <v>-712.27800000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8184.09</v>
+        <v>4318.9489999999996</v>
       </c>
       <c r="U31">
-        <v>294.57100000000003</v>
+        <v>794.64300000000003</v>
       </c>
       <c r="V31">
-        <v>225.77799999999999</v>
+        <v>103.623</v>
       </c>
       <c r="W31">
-        <v>-140.28800000000001</v>
+        <v>-936.39</v>
       </c>
       <c r="X31">
-        <v>-92.23</v>
+        <v>-905.452</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-49.140999999999998</v>
+        <v>-65.525999999999996</v>
       </c>
       <c r="AA31">
-        <v>178.64599999999999</v>
+        <v>84.481999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>131.286</v>
+        <v>75.475999999999999</v>
       </c>
       <c r="D32">
-        <v>664.61900000000003</v>
+        <v>366.26</v>
       </c>
       <c r="E32">
-        <v>976.31200000000001</v>
+        <v>368.26499999999999</v>
       </c>
       <c r="F32">
-        <v>417.61399999999998</v>
+        <v>240.708</v>
       </c>
       <c r="G32">
-        <v>1789.3440000000001</v>
+        <v>836.53</v>
       </c>
       <c r="H32">
-        <v>19961.163</v>
+        <v>10387.924999999999</v>
       </c>
       <c r="I32">
-        <v>327.06700000000001</v>
+        <v>169.78</v>
       </c>
       <c r="J32">
-        <v>10721.878000000001</v>
+        <v>5197.68</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>563.17399999999998</v>
+        <v>641.83100000000002</v>
       </c>
       <c r="O32">
-        <v>11747.921</v>
+        <v>6026.6149999999998</v>
       </c>
       <c r="P32">
-        <v>10721.878000000001</v>
+        <v>5503.8890000000001</v>
       </c>
       <c r="Q32">
-        <v>271.93099999999998</v>
+        <v>-682.53300000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8213.2420000000002</v>
+        <v>4361.3100000000004</v>
       </c>
       <c r="U32">
-        <v>472.55500000000001</v>
+        <v>112.11</v>
       </c>
       <c r="V32">
-        <v>335.06799999999998</v>
+        <v>147.36199999999999</v>
       </c>
       <c r="W32">
-        <v>-140.46600000000001</v>
+        <v>-105.494</v>
       </c>
       <c r="X32">
-        <v>238.876</v>
+        <v>-108.334</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-16.632000000000001</v>
+        <v>-441.82</v>
       </c>
       <c r="AA32">
-        <v>131.30600000000001</v>
+        <v>75.483000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>121.77800000000001</v>
+        <v>43.052</v>
       </c>
       <c r="D33">
-        <v>680.91</v>
+        <v>359.48</v>
       </c>
       <c r="E33">
-        <v>1024.7760000000001</v>
+        <v>373.96499999999997</v>
       </c>
       <c r="F33">
-        <v>423.17899999999997</v>
+        <v>225.447</v>
       </c>
       <c r="G33">
-        <v>1662.0029999999999</v>
+        <v>777.91200000000003</v>
       </c>
       <c r="H33">
-        <v>20137.498</v>
+        <v>10873.334000000001</v>
       </c>
       <c r="I33">
-        <v>315.46199999999999</v>
+        <v>152.01499999999999</v>
       </c>
       <c r="J33">
-        <v>10889.701999999999</v>
+        <v>6088.52</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>573.38900000000001</v>
+        <v>333.125</v>
       </c>
       <c r="O33">
-        <v>11931.523999999999</v>
+        <v>6589.2910000000002</v>
       </c>
       <c r="P33">
-        <v>10889.701999999999</v>
+        <v>6111.4629999999997</v>
       </c>
       <c r="Q33">
-        <v>-303.27600000000001</v>
+        <v>-56.512999999999998</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8205.9740000000002</v>
+        <v>4284.0429999999997</v>
       </c>
       <c r="U33">
-        <v>322.50200000000001</v>
+        <v>55.597000000000001</v>
       </c>
       <c r="V33">
-        <v>209.78100000000001</v>
+        <v>114.69799999999999</v>
       </c>
       <c r="W33">
-        <v>-140.51</v>
+        <v>-96.94</v>
       </c>
       <c r="X33">
-        <v>21.209</v>
+        <v>412.62</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-249.06299999999999</v>
+        <v>-370.31799999999998</v>
       </c>
       <c r="AA33">
-        <v>121.74299999999999</v>
+        <v>43.079000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>151.137</v>
+        <v>-97.74</v>
       </c>
       <c r="D34">
-        <v>701.67899999999997</v>
+        <v>369.90199999999999</v>
       </c>
       <c r="E34">
-        <v>1021.525</v>
+        <v>385.45400000000001</v>
       </c>
       <c r="F34">
-        <v>440.22</v>
+        <v>237.577</v>
       </c>
       <c r="G34">
-        <v>1841.127</v>
+        <v>941.33500000000004</v>
       </c>
       <c r="H34">
-        <v>20256.476999999999</v>
+        <v>10917.476000000001</v>
       </c>
       <c r="I34">
-        <v>276.64499999999998</v>
+        <v>171.791</v>
       </c>
       <c r="J34">
-        <v>11007.757</v>
+        <v>6092.884</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>531.02599999999995</v>
+        <v>336.08499999999998</v>
       </c>
       <c r="O34">
-        <v>12042.509</v>
+        <v>6602.7190000000001</v>
       </c>
       <c r="P34">
-        <v>11007.757</v>
+        <v>6092.884</v>
       </c>
       <c r="Q34">
-        <v>215.40700000000001</v>
+        <v>185.91300000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="T34">
-        <v>8213.9680000000008</v>
+        <v>4314.7569999999996</v>
       </c>
       <c r="U34">
-        <v>543.35900000000004</v>
+        <v>241.51</v>
       </c>
       <c r="V34">
-        <v>379.61799999999999</v>
+        <v>199.62799999999999</v>
       </c>
       <c r="W34">
-        <v>-166.364</v>
+        <v>-96.942999999999998</v>
       </c>
       <c r="X34">
-        <v>-85.402000000000001</v>
+        <v>90.522999999999996</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-31.783000000000001</v>
+        <v>-3.6659999999999999</v>
       </c>
       <c r="AA34">
-        <v>151.137</v>
+        <v>-97.74</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>100.73</v>
+        <v>44.597999999999999</v>
       </c>
       <c r="D35">
-        <v>723.95600000000002</v>
+        <v>382.32100000000003</v>
       </c>
       <c r="E35">
-        <v>1046.5250000000001</v>
+        <v>400.35300000000001</v>
       </c>
       <c r="F35">
-        <v>458.11599999999999</v>
+        <v>252.988</v>
       </c>
       <c r="G35">
-        <v>1709.8879999999999</v>
+        <v>881.226</v>
       </c>
       <c r="H35">
-        <v>20501.603999999999</v>
+        <v>10871.936</v>
       </c>
       <c r="I35">
-        <v>328.88499999999999</v>
+        <v>180.93299999999999</v>
       </c>
       <c r="J35">
-        <v>11005.558000000001</v>
+        <v>5858.2139999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-56.115000000000002</v>
+        <v>-32.360999999999997</v>
       </c>
       <c r="N35">
-        <v>583.40800000000002</v>
+        <v>602.73099999999999</v>
       </c>
       <c r="O35">
-        <v>12331.316999999999</v>
+        <v>6594.607</v>
       </c>
       <c r="P35">
-        <v>11378.334000000001</v>
+        <v>6112.8</v>
       </c>
       <c r="Q35">
-        <v>-206.893</v>
+        <v>-97.721000000000004</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>8170.2870000000003</v>
+        <v>4277.3289999999997</v>
       </c>
       <c r="U35">
-        <v>360.09100000000001</v>
+        <v>143.78899999999999</v>
       </c>
       <c r="V35">
-        <v>207.23400000000001</v>
+        <v>110.136</v>
       </c>
       <c r="W35">
-        <v>-166.36199999999999</v>
+        <v>-97.652000000000001</v>
       </c>
       <c r="X35">
-        <v>-190.61199999999999</v>
+        <v>-114.943</v>
       </c>
       <c r="Y35">
-        <v>372.77600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-27.88</v>
+        <v>-1.546</v>
       </c>
       <c r="AA35">
-        <v>100.73</v>
+        <v>44.597999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>166.95099999999999</v>
+        <v>67.218999999999994</v>
       </c>
       <c r="D36">
-        <v>753.71400000000006</v>
+        <v>388.697</v>
       </c>
       <c r="E36">
-        <v>1060.894</v>
+        <v>418.61799999999999</v>
       </c>
       <c r="F36">
-        <v>486.24599999999998</v>
+        <v>258.608</v>
       </c>
       <c r="G36">
-        <v>2392.2370000000001</v>
+        <v>1553.057</v>
       </c>
       <c r="H36">
-        <v>21268.275000000001</v>
+        <v>11580.664000000001</v>
       </c>
       <c r="I36">
-        <v>418.42899999999997</v>
+        <v>223.90899999999999</v>
       </c>
       <c r="J36">
-        <v>11846.241</v>
+        <v>5751.08</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>673.13699999999994</v>
+        <v>577.46299999999997</v>
       </c>
       <c r="O36">
-        <v>13247.608</v>
+        <v>6455.1030000000001</v>
       </c>
       <c r="P36">
-        <v>12218.486999999999</v>
+        <v>5957.6959999999999</v>
       </c>
       <c r="Q36">
-        <v>730.62599999999998</v>
+        <v>675.45600000000002</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8020.6670000000004</v>
+        <v>5125.5609999999997</v>
       </c>
       <c r="U36">
-        <v>1087.001</v>
+        <v>819.245</v>
       </c>
       <c r="V36">
-        <v>358.37</v>
+        <v>206.80099999999999</v>
       </c>
       <c r="W36">
-        <v>-166.59899999999999</v>
+        <v>-98.04</v>
       </c>
       <c r="X36">
-        <v>476.69299999999998</v>
+        <v>574.70600000000002</v>
       </c>
       <c r="Y36">
-        <v>372.24599999999998</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>81.733000000000004</v>
+        <v>-0.91600000000000004</v>
       </c>
       <c r="AA36">
-        <v>166.94300000000001</v>
+        <v>67.152000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>110.39400000000001</v>
+        <v>65.787000000000006</v>
       </c>
       <c r="D37">
-        <v>741.51599999999996</v>
+        <v>382.14</v>
       </c>
       <c r="E37">
-        <v>1105.1880000000001</v>
+        <v>425.55399999999997</v>
       </c>
       <c r="F37">
-        <v>466.63200000000001</v>
+        <v>247.702</v>
       </c>
       <c r="G37">
-        <v>2120.105</v>
+        <v>1540.318</v>
       </c>
       <c r="H37">
-        <v>21288.575000000001</v>
+        <v>11631.777</v>
       </c>
       <c r="I37">
-        <v>421.26900000000001</v>
+        <v>187.73</v>
       </c>
       <c r="J37">
-        <v>11838.737999999999</v>
+        <v>5816.4179999999997</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>669.86699999999996</v>
+        <v>551.74800000000005</v>
       </c>
       <c r="O37">
-        <v>13292.808000000001</v>
+        <v>6499.3590000000004</v>
       </c>
       <c r="P37">
-        <v>12259.522000000001</v>
+        <v>6008.99</v>
       </c>
       <c r="Q37">
-        <v>-358.15899999999999</v>
+        <v>-37.139000000000003</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>7995.7669999999998</v>
+        <v>5132.4179999999997</v>
       </c>
       <c r="U37">
-        <v>751.21</v>
+        <v>782.10599999999999</v>
       </c>
       <c r="V37">
-        <v>254.18799999999999</v>
+        <v>130.97900000000001</v>
       </c>
       <c r="W37">
-        <v>-166.666</v>
+        <v>-80.739999999999995</v>
       </c>
       <c r="X37">
-        <v>-203.833</v>
+        <v>-38.798000000000002</v>
       </c>
       <c r="Y37">
-        <v>420.78399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>15.518000000000001</v>
+        <v>-1.62</v>
       </c>
       <c r="AA37">
-        <v>110.396</v>
+        <v>65.795000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>143.459</v>
+        <v>53.41</v>
       </c>
       <c r="D38">
-        <v>755.41300000000001</v>
+        <v>377.09</v>
       </c>
       <c r="E38">
-        <v>1151.595</v>
+        <v>456.36099999999999</v>
       </c>
       <c r="F38">
-        <v>477.60700000000003</v>
+        <v>245.185</v>
       </c>
       <c r="G38">
-        <v>1981.086</v>
+        <v>2214.8449999999998</v>
       </c>
       <c r="H38">
-        <v>21284.904999999999</v>
+        <v>12348.703</v>
       </c>
       <c r="I38">
-        <v>377.553</v>
+        <v>220.089</v>
       </c>
       <c r="J38">
-        <v>11811.806</v>
+        <v>6719.7709999999997</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>638.28200000000004</v>
+        <v>376.68299999999999</v>
       </c>
       <c r="O38">
-        <v>13270.669</v>
+        <v>7223.9920000000002</v>
       </c>
       <c r="P38">
-        <v>12236.028</v>
+        <v>6719.7709999999997</v>
       </c>
       <c r="Q38">
-        <v>-112.879</v>
+        <v>666.827</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="T38">
-        <v>8014.2359999999999</v>
+        <v>5124.7110000000002</v>
       </c>
       <c r="U38">
-        <v>644.95000000000005</v>
+        <v>1448.933</v>
       </c>
       <c r="V38">
-        <v>361.37299999999999</v>
+        <v>169.46</v>
       </c>
       <c r="W38">
-        <v>-166.667</v>
+        <v>-80.896000000000001</v>
       </c>
       <c r="X38">
-        <v>-195.62700000000001</v>
+        <v>615.68299999999999</v>
       </c>
       <c r="Y38">
-        <v>424.22199999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-22.088000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AA38">
-        <v>143.459</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>500.12099999999998</v>
+        <v>52.713999999999999</v>
       </c>
       <c r="D39">
-        <v>750.57100000000003</v>
+        <v>385.98099999999999</v>
       </c>
       <c r="E39">
-        <v>1149.1079999999999</v>
+        <v>479.02699999999999</v>
       </c>
       <c r="F39">
-        <v>480.16899999999998</v>
+        <v>255.72800000000001</v>
       </c>
       <c r="G39">
-        <v>2239.0100000000002</v>
+        <v>2041.2650000000001</v>
       </c>
       <c r="H39">
-        <v>21829.698</v>
+        <v>12251.342000000001</v>
       </c>
       <c r="I39">
-        <v>293.83100000000002</v>
+        <v>189.63300000000001</v>
       </c>
       <c r="J39">
-        <v>12061.224</v>
+        <v>6500.4669999999996</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-19.212</v>
+        <v>-56.551000000000002</v>
       </c>
       <c r="N39">
-        <v>547.245</v>
+        <v>513.98699999999997</v>
       </c>
       <c r="O39">
-        <v>13408.815000000001</v>
+        <v>7130.2089999999998</v>
       </c>
       <c r="P39">
-        <v>12488.864</v>
+        <v>6674.8990000000003</v>
       </c>
       <c r="Q39">
-        <v>166.69200000000001</v>
+        <v>-228.541</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>8420.8829999999998</v>
+        <v>5121.1329999999998</v>
       </c>
       <c r="U39">
-        <v>660.73299999999995</v>
+        <v>1220.3920000000001</v>
       </c>
       <c r="V39">
-        <v>175.197</v>
+        <v>60.094000000000001</v>
       </c>
       <c r="W39">
-        <v>-171.964</v>
+        <v>-80.950999999999993</v>
       </c>
       <c r="X39">
-        <v>65.287999999999997</v>
+        <v>-135.68899999999999</v>
       </c>
       <c r="Y39">
-        <v>427.64</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-86.796000000000006</v>
+        <v>-33.539000000000001</v>
       </c>
       <c r="AA39">
-        <v>500.33199999999999</v>
+        <v>52.713999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>269.36099999999999</v>
+        <v>61.417999999999999</v>
       </c>
       <c r="D40">
-        <v>650.51300000000003</v>
+        <v>401.30599999999998</v>
       </c>
       <c r="E40">
-        <v>1151.549</v>
+        <v>499.65600000000001</v>
       </c>
       <c r="F40">
-        <v>408.42099999999999</v>
+        <v>271.93299999999999</v>
       </c>
       <c r="G40">
-        <v>3303.9720000000002</v>
+        <v>2520.8710000000001</v>
       </c>
       <c r="H40">
-        <v>23000.776999999998</v>
+        <v>12787.700999999999</v>
       </c>
       <c r="I40">
-        <v>328.29199999999997</v>
+        <v>177</v>
       </c>
       <c r="J40">
-        <v>13048.579</v>
+        <v>6931.7139999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>594.64300000000003</v>
+        <v>635.97199999999998</v>
       </c>
       <c r="O40">
-        <v>14453.630999999999</v>
+        <v>7663.1090000000004</v>
       </c>
       <c r="P40">
-        <v>13479.704</v>
+        <v>7229.3</v>
       </c>
       <c r="Q40">
-        <v>1133.077</v>
+        <v>483.05599999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>8547.1460000000006</v>
+        <v>5124.5919999999996</v>
       </c>
       <c r="U40">
-        <v>1691.047</v>
+        <v>1703.4480000000001</v>
       </c>
       <c r="V40">
-        <v>379.07499999999999</v>
+        <v>150.41</v>
       </c>
       <c r="W40">
-        <v>-172.27500000000001</v>
+        <v>-81.093999999999994</v>
       </c>
       <c r="X40">
-        <v>800.73099999999999</v>
+        <v>465.26600000000002</v>
       </c>
       <c r="Y40">
-        <v>431.125</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>38.046999999999997</v>
+        <v>-0.13400000000000001</v>
       </c>
       <c r="AA40">
-        <v>269.60500000000002</v>
+        <v>61.411999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>92.933999999999997</v>
+        <v>57.654000000000003</v>
       </c>
       <c r="D41">
-        <v>685.95100000000002</v>
+        <v>397.97500000000002</v>
       </c>
       <c r="E41">
-        <v>1187.4079999999999</v>
+        <v>534.66300000000001</v>
       </c>
       <c r="F41">
-        <v>424.21899999999999</v>
+        <v>263.74</v>
       </c>
       <c r="G41">
-        <v>3161.6170000000002</v>
+        <v>2417.8989999999999</v>
       </c>
       <c r="H41">
-        <v>22959.215</v>
+        <v>13048.835999999999</v>
       </c>
       <c r="I41">
-        <v>345.959</v>
+        <v>199.53399999999999</v>
       </c>
       <c r="J41">
-        <v>13048.161</v>
+        <v>6561.9059999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>605.85500000000002</v>
+        <v>1248.271</v>
       </c>
       <c r="O41">
-        <v>14464.177</v>
+        <v>7915.0910000000003</v>
       </c>
       <c r="P41">
-        <v>13482.786</v>
+        <v>7444.8860000000004</v>
       </c>
       <c r="Q41">
-        <v>-226.86600000000001</v>
+        <v>-433.37400000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>8495.0380000000005</v>
+        <v>5133.7449999999999</v>
       </c>
       <c r="U41">
-        <v>1714.7829999999999</v>
+        <v>1270.0740000000001</v>
       </c>
       <c r="V41">
-        <v>228.15100000000001</v>
+        <v>122.35</v>
       </c>
       <c r="W41">
-        <v>-172.333</v>
+        <v>-81.207999999999998</v>
       </c>
       <c r="X41">
-        <v>-187.12799999999999</v>
+        <v>-65.584000000000003</v>
       </c>
       <c r="Y41">
-        <v>434.625</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-51.723999999999997</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="AA41">
-        <v>92.478999999999999</v>
+        <v>57.667999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-12.714</v>
+      </c>
+      <c r="D42">
+        <v>402.31599999999997</v>
+      </c>
+      <c r="E42">
+        <v>503.49599999999998</v>
+      </c>
+      <c r="F42">
+        <v>269.33</v>
+      </c>
+      <c r="G42">
+        <v>1695.143</v>
+      </c>
+      <c r="H42">
+        <v>13348.263000000001</v>
+      </c>
+      <c r="I42">
+        <v>161.59200000000001</v>
+      </c>
+      <c r="J42">
+        <v>7786.0010000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>304.95</v>
+      </c>
+      <c r="O42">
+        <v>8328.4179999999997</v>
+      </c>
+      <c r="P42">
+        <v>7786.0010000000002</v>
+      </c>
+      <c r="Q42">
+        <v>-791.12599999999998</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>680</v>
+      </c>
+      <c r="T42">
+        <v>5019.8450000000003</v>
+      </c>
+      <c r="U42">
+        <v>478.94799999999998</v>
+      </c>
+      <c r="V42">
+        <v>43.039000000000001</v>
+      </c>
+      <c r="W42">
+        <v>-81.433000000000007</v>
+      </c>
+      <c r="X42">
+        <v>-448.59699999999998</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>21.233000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>-12.714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>40.813000000000002</v>
+      </c>
+      <c r="D43">
+        <v>423.25799999999998</v>
+      </c>
+      <c r="E43">
+        <v>517.85699999999997</v>
+      </c>
+      <c r="F43">
+        <v>278.55599999999998</v>
+      </c>
+      <c r="G43">
+        <v>2017.0309999999999</v>
+      </c>
+      <c r="H43">
+        <v>13835.473</v>
+      </c>
+      <c r="I43">
+        <v>171.61699999999999</v>
+      </c>
+      <c r="J43">
+        <v>7215.6189999999997</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-8.7769999999999992</v>
+      </c>
+      <c r="N43">
+        <v>1064.3510000000001</v>
+      </c>
+      <c r="O43">
+        <v>8490.3619999999992</v>
+      </c>
+      <c r="P43">
+        <v>7937.2640000000001</v>
+      </c>
+      <c r="Q43">
+        <v>268.35700000000003</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5345.1109999999999</v>
+      </c>
+      <c r="U43">
+        <v>747.30499999999995</v>
+      </c>
+      <c r="V43">
+        <v>132.28399999999999</v>
+      </c>
+      <c r="W43">
+        <v>-81.441999999999993</v>
+      </c>
+      <c r="X43">
+        <v>257.10199999999998</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-1.927</v>
+      </c>
+      <c r="AA43">
+        <v>40.734999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>60.136000000000003</v>
+      </c>
+      <c r="D44">
+        <v>442.74900000000002</v>
+      </c>
+      <c r="E44">
+        <v>536.34799999999996</v>
+      </c>
+      <c r="F44">
+        <v>291.47399999999999</v>
+      </c>
+      <c r="G44">
+        <v>2068.1</v>
+      </c>
+      <c r="H44">
+        <v>13884.212</v>
+      </c>
+      <c r="I44">
+        <v>173.25700000000001</v>
+      </c>
+      <c r="J44">
+        <v>7434.0810000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>826.23400000000004</v>
+      </c>
+      <c r="O44">
+        <v>8492.0169999999998</v>
+      </c>
+      <c r="P44">
+        <v>7941.643</v>
+      </c>
+      <c r="Q44">
+        <v>33.279000000000003</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5392.1949999999997</v>
+      </c>
+      <c r="U44">
+        <v>780.58399999999995</v>
+      </c>
+      <c r="V44">
+        <v>157.81700000000001</v>
+      </c>
+      <c r="W44">
+        <v>-83.388000000000005</v>
+      </c>
+      <c r="X44">
+        <v>-55.460999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-15.653</v>
+      </c>
+      <c r="AA44">
+        <v>60.213999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>70.41</v>
+      </c>
+      <c r="D45">
+        <v>461.029</v>
+      </c>
+      <c r="E45">
+        <v>556.39200000000005</v>
+      </c>
+      <c r="F45">
+        <v>300.74700000000001</v>
+      </c>
+      <c r="G45">
+        <v>2120.1439999999998</v>
+      </c>
+      <c r="H45">
+        <v>13980.798000000001</v>
+      </c>
+      <c r="I45">
+        <v>172.928</v>
+      </c>
+      <c r="J45">
+        <v>7721.91</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>574.52</v>
+      </c>
+      <c r="O45">
+        <v>8540.9850000000006</v>
+      </c>
+      <c r="P45">
+        <v>7950.3630000000003</v>
+      </c>
+      <c r="Q45">
+        <v>282.44</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5439.8130000000001</v>
+      </c>
+      <c r="U45">
+        <v>1063.0239999999999</v>
+      </c>
+      <c r="V45">
+        <v>152.75800000000001</v>
+      </c>
+      <c r="W45">
+        <v>-83.771000000000001</v>
+      </c>
+      <c r="X45">
+        <v>-30.021999999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-1.3480000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>70.542000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>101.32</v>
+      </c>
+      <c r="D46">
+        <v>510.18</v>
+      </c>
+      <c r="E46">
+        <v>602.51300000000003</v>
+      </c>
+      <c r="F46">
+        <v>348.1</v>
+      </c>
+      <c r="G46">
+        <v>2911.8069999999998</v>
+      </c>
+      <c r="H46">
+        <v>14782.966</v>
+      </c>
+      <c r="I46">
+        <v>155.13900000000001</v>
+      </c>
+      <c r="J46">
+        <v>8704.1380000000008</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>316.14499999999998</v>
+      </c>
+      <c r="O46">
+        <v>9313.7980000000007</v>
+      </c>
+      <c r="P46">
+        <v>8704.1380000000008</v>
+      </c>
+      <c r="Q46">
+        <v>760.18399999999997</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>700</v>
+      </c>
+      <c r="T46">
+        <v>5469.1679999999997</v>
+      </c>
+      <c r="U46">
+        <v>1823.2080000000001</v>
+      </c>
+      <c r="V46">
+        <v>163.46899999999999</v>
+      </c>
+      <c r="W46">
+        <v>-83.995999999999995</v>
+      </c>
+      <c r="X46">
+        <v>656.40899999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>140.20400000000001</v>
+      </c>
+      <c r="AA46">
+        <v>101.32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>48.454000000000001</v>
+      </c>
+      <c r="D47">
+        <v>455.41399999999999</v>
+      </c>
+      <c r="E47">
+        <v>609.428</v>
+      </c>
+      <c r="F47">
+        <v>291.36900000000003</v>
+      </c>
+      <c r="G47">
+        <v>1680.7560000000001</v>
+      </c>
+      <c r="H47">
+        <v>14212.857</v>
+      </c>
+      <c r="I47">
+        <v>165.441</v>
+      </c>
+      <c r="J47">
+        <v>7902.1239999999998</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-657.95299999999997</v>
+      </c>
+      <c r="N47">
+        <v>414.55500000000001</v>
+      </c>
+      <c r="O47">
+        <v>8641.5049999999992</v>
+      </c>
+      <c r="P47">
+        <v>7960.6260000000002</v>
+      </c>
+      <c r="Q47">
+        <v>-1232.0119999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5571.3519999999999</v>
+      </c>
+      <c r="U47">
+        <v>591.19600000000003</v>
+      </c>
+      <c r="V47">
+        <v>169.261</v>
+      </c>
+      <c r="W47">
+        <v>-92.311999999999998</v>
+      </c>
+      <c r="X47">
+        <v>-641.16300000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-0.83399999999999996</v>
+      </c>
+      <c r="AA47">
+        <v>48.454000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>118.517</v>
+      </c>
+      <c r="D48">
+        <v>486.36799999999999</v>
+      </c>
+      <c r="E48">
+        <v>603.15300000000002</v>
+      </c>
+      <c r="F48">
+        <v>324.02999999999997</v>
+      </c>
+      <c r="G48">
+        <v>2729.2930000000001</v>
+      </c>
+      <c r="H48">
+        <v>15280.629000000001</v>
+      </c>
+      <c r="I48">
+        <v>163.49600000000001</v>
+      </c>
+      <c r="J48">
+        <v>8900.52</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>314.483</v>
+      </c>
+      <c r="O48">
+        <v>9523.357</v>
+      </c>
+      <c r="P48">
+        <v>8896.2070000000003</v>
+      </c>
+      <c r="Q48">
+        <v>1080.8009999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5757.2719999999999</v>
+      </c>
+      <c r="U48">
+        <v>1671.9970000000001</v>
+      </c>
+      <c r="V48">
+        <v>161.81899999999999</v>
+      </c>
+      <c r="W48">
+        <v>-92.956999999999994</v>
+      </c>
+      <c r="X48">
+        <v>965.28599999999994</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>118.541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>57.273000000000003</v>
+      </c>
+      <c r="D49">
+        <v>475.51299999999998</v>
+      </c>
+      <c r="E49">
+        <v>624.59199999999998</v>
+      </c>
+      <c r="F49">
+        <v>301.79399999999998</v>
+      </c>
+      <c r="G49">
+        <v>2396.4969999999998</v>
+      </c>
+      <c r="H49">
+        <v>15141.942999999999</v>
+      </c>
+      <c r="I49">
+        <v>193.49199999999999</v>
+      </c>
+      <c r="J49">
+        <v>8650.8580000000002</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>385.55399999999997</v>
+      </c>
+      <c r="O49">
+        <v>9345.4159999999993</v>
+      </c>
+      <c r="P49">
+        <v>8650.8580000000002</v>
+      </c>
+      <c r="Q49">
+        <v>-448.78199999999998</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>5796.527</v>
+      </c>
+      <c r="U49">
+        <v>1223.2149999999999</v>
+      </c>
+      <c r="V49">
+        <v>132.60599999999999</v>
+      </c>
+      <c r="W49">
+        <v>-93.724999999999994</v>
+      </c>
+      <c r="X49">
+        <v>-367.69</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>57.249000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>65.406000000000006</v>
+      </c>
+      <c r="D50">
+        <v>478.96899999999999</v>
+      </c>
+      <c r="E50">
+        <v>667.75400000000002</v>
+      </c>
+      <c r="F50">
+        <v>308.20999999999998</v>
+      </c>
+      <c r="G50">
+        <v>2242.83</v>
+      </c>
+      <c r="H50">
+        <v>15462.321</v>
+      </c>
+      <c r="I50">
+        <v>199.102</v>
+      </c>
+      <c r="J50">
+        <v>8912.3690000000006</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>382.05099999999999</v>
+      </c>
+      <c r="O50">
+        <v>9619.0329999999994</v>
+      </c>
+      <c r="P50">
+        <v>8912.3690000000006</v>
+      </c>
+      <c r="Q50">
+        <v>-181.23699999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>730</v>
+      </c>
+      <c r="T50">
+        <v>5843.2879999999996</v>
+      </c>
+      <c r="U50">
+        <v>1041.9780000000001</v>
+      </c>
+      <c r="V50">
+        <v>179.26300000000001</v>
+      </c>
+      <c r="W50">
+        <v>-93.905000000000001</v>
+      </c>
+      <c r="X50">
+        <v>-102.58</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-5.54</v>
+      </c>
+      <c r="AA50">
+        <v>65.406000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>486.54700000000003</v>
+      </c>
+      <c r="E51">
+        <v>687.89</v>
+      </c>
+      <c r="F51">
+        <v>309.99799999999999</v>
+      </c>
+      <c r="G51">
+        <v>2113.0520000000001</v>
+      </c>
+      <c r="H51">
+        <v>15623.279</v>
+      </c>
+      <c r="I51">
+        <v>210.35900000000001</v>
+      </c>
+      <c r="J51">
+        <v>8437.4130000000005</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-23.687000000000001</v>
+      </c>
+      <c r="N51">
+        <v>854.84100000000001</v>
+      </c>
+      <c r="O51">
+        <v>9608.9369999999999</v>
+      </c>
+      <c r="P51">
+        <v>8871.518</v>
+      </c>
+      <c r="Q51">
+        <v>-132.602</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>6014.3419999999996</v>
+      </c>
+      <c r="U51">
+        <v>909.37599999999998</v>
+      </c>
+      <c r="V51">
+        <v>237.429</v>
+      </c>
+      <c r="W51">
+        <v>-110.94</v>
+      </c>
+      <c r="X51">
+        <v>62.96</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-1.0309999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>454.85700000000003</v>
+      </c>
+      <c r="D52">
+        <v>517.55899999999997</v>
+      </c>
+      <c r="E52">
+        <v>691.69299999999998</v>
+      </c>
+      <c r="F52">
+        <v>333.67099999999999</v>
+      </c>
+      <c r="G52">
+        <v>2534.9940000000001</v>
+      </c>
+      <c r="H52">
+        <v>19462.784</v>
+      </c>
+      <c r="I52">
+        <v>212.99799999999999</v>
+      </c>
+      <c r="J52">
+        <v>10775.968000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1236.6759999999999</v>
+      </c>
+      <c r="O52">
+        <v>12569.374</v>
+      </c>
+      <c r="P52">
+        <v>11545.545</v>
+      </c>
+      <c r="Q52">
+        <v>699.35500000000002</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6893.41</v>
+      </c>
+      <c r="U52">
+        <v>1608.731</v>
+      </c>
+      <c r="V52">
+        <v>97.409000000000006</v>
+      </c>
+      <c r="W52">
+        <v>-112.511</v>
+      </c>
+      <c r="X52">
+        <v>621.25699999999995</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>201.07499999999999</v>
+      </c>
+      <c r="AA52">
+        <v>455.03500000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>155.41499999999999</v>
+      </c>
+      <c r="D53">
+        <v>574.63</v>
+      </c>
+      <c r="E53">
+        <v>696.43399999999997</v>
+      </c>
+      <c r="F53">
+        <v>367.99599999999998</v>
+      </c>
+      <c r="G53">
+        <v>2629.8960000000002</v>
+      </c>
+      <c r="H53">
+        <v>19519.707999999999</v>
+      </c>
+      <c r="I53">
+        <v>215.77799999999999</v>
+      </c>
+      <c r="J53">
+        <v>10794.833000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1249.0940000000001</v>
+      </c>
+      <c r="O53">
+        <v>12611.391</v>
+      </c>
+      <c r="P53">
+        <v>11534.369000000001</v>
+      </c>
+      <c r="Q53">
+        <v>32.543999999999997</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6908.317</v>
+      </c>
+      <c r="U53">
+        <v>1641.2750000000001</v>
+      </c>
+      <c r="V53">
+        <v>215.583</v>
+      </c>
+      <c r="W53">
+        <v>-113.989</v>
+      </c>
+      <c r="X53">
+        <v>-181.89599999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>21.69</v>
+      </c>
+      <c r="AA53">
+        <v>155.32400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>91.539000000000001</v>
+      </c>
+      <c r="D54">
+        <v>578.83699999999999</v>
+      </c>
+      <c r="E54">
+        <v>711.06700000000001</v>
+      </c>
+      <c r="F54">
+        <v>372.76100000000002</v>
+      </c>
+      <c r="G54">
+        <v>3317.8820000000001</v>
+      </c>
+      <c r="H54">
+        <v>20176.263999999999</v>
+      </c>
+      <c r="I54">
+        <v>202.47</v>
+      </c>
+      <c r="J54">
+        <v>10776.628000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1612.115</v>
+      </c>
+      <c r="O54">
+        <v>12981.725</v>
+      </c>
+      <c r="P54">
+        <v>11521.508</v>
+      </c>
+      <c r="Q54">
+        <v>723.86199999999997</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>760</v>
+      </c>
+      <c r="T54">
+        <v>7194.5389999999998</v>
+      </c>
+      <c r="U54">
+        <v>2365.1370000000002</v>
+      </c>
+      <c r="V54">
+        <v>227.505</v>
+      </c>
+      <c r="W54">
+        <v>-113.678</v>
+      </c>
+      <c r="X54">
+        <v>575.55200000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>2.57</v>
+      </c>
+      <c r="AA54">
+        <v>91.539000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>56.622999999999998</v>
+      </c>
+      <c r="D55">
+        <v>577.31899999999996</v>
+      </c>
+      <c r="E55">
+        <v>699.54200000000003</v>
+      </c>
+      <c r="F55">
+        <v>363.697</v>
+      </c>
+      <c r="G55">
+        <v>2111.8429999999998</v>
+      </c>
+      <c r="H55">
+        <v>18979.567999999999</v>
+      </c>
+      <c r="I55">
+        <v>218.02799999999999</v>
+      </c>
+      <c r="J55">
+        <v>10757.135</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-661.15099999999995</v>
+      </c>
+      <c r="N55">
+        <v>511.47800000000001</v>
+      </c>
+      <c r="O55">
+        <v>11825.385</v>
+      </c>
+      <c r="P55">
+        <v>10757.135</v>
+      </c>
+      <c r="Q55">
+        <v>-1185.5640000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7154.183</v>
+      </c>
+      <c r="U55">
+        <v>1179.5730000000001</v>
+      </c>
+      <c r="V55">
+        <v>124.209</v>
+      </c>
+      <c r="W55">
+        <v>-496.33</v>
+      </c>
+      <c r="X55">
+        <v>-1162.701</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-0.98599999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>56.622999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>79.177999999999997</v>
+      </c>
+      <c r="D56">
+        <v>592.37199999999996</v>
+      </c>
+      <c r="E56">
+        <v>724.93499999999995</v>
+      </c>
+      <c r="F56">
+        <v>381.75</v>
+      </c>
+      <c r="G56">
+        <v>1953.7940000000001</v>
+      </c>
+      <c r="H56">
+        <v>18898.532999999999</v>
+      </c>
+      <c r="I56">
+        <v>216.08</v>
+      </c>
+      <c r="J56">
+        <v>10675.609</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>547.524</v>
+      </c>
+      <c r="O56">
+        <v>11762.849</v>
+      </c>
+      <c r="P56">
+        <v>10738.609</v>
+      </c>
+      <c r="Q56">
+        <v>-142.99700000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7135.6840000000002</v>
+      </c>
+      <c r="U56">
+        <v>1036.576</v>
+      </c>
+      <c r="V56">
+        <v>184.78399999999999</v>
+      </c>
+      <c r="W56">
+        <v>-116.282</v>
+      </c>
+      <c r="X56">
+        <v>-128.28200000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-47.762</v>
+      </c>
+      <c r="AA56">
+        <v>79.144999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>130.52500000000001</v>
+      </c>
+      <c r="D57">
+        <v>623.00300000000004</v>
+      </c>
+      <c r="E57">
+        <v>733.09500000000003</v>
+      </c>
+      <c r="F57">
+        <v>398.83699999999999</v>
+      </c>
+      <c r="G57">
+        <v>1951.9939999999999</v>
+      </c>
+      <c r="H57">
+        <v>18875.16</v>
+      </c>
+      <c r="I57">
+        <v>253.6</v>
+      </c>
+      <c r="J57">
+        <v>10655.75</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>548.26199999999994</v>
+      </c>
+      <c r="O57">
+        <v>11721.44</v>
+      </c>
+      <c r="P57">
+        <v>10655.75</v>
+      </c>
+      <c r="Q57">
+        <v>-189.91200000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>7153.72</v>
+      </c>
+      <c r="U57">
+        <v>846.66399999999999</v>
+      </c>
+      <c r="V57">
+        <v>160.684</v>
+      </c>
+      <c r="W57">
+        <v>-113.702</v>
+      </c>
+      <c r="X57">
+        <v>-208.911</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0.08</v>
+      </c>
+      <c r="AA57">
+        <v>130.37100000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>177.285</v>
+      </c>
+      <c r="D58">
+        <v>616.21699999999998</v>
+      </c>
+      <c r="E58">
+        <v>738.59400000000005</v>
+      </c>
+      <c r="F58">
+        <v>396.96100000000001</v>
+      </c>
+      <c r="G58">
+        <v>3153.4259999999999</v>
+      </c>
+      <c r="H58">
+        <v>19886.767</v>
+      </c>
+      <c r="I58">
+        <v>243.26300000000001</v>
+      </c>
+      <c r="J58">
+        <v>10086.984</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1289.2670000000001</v>
+      </c>
+      <c r="O58">
+        <v>11878.505999999999</v>
+      </c>
+      <c r="P58">
+        <v>10086.984</v>
+      </c>
+      <c r="Q58">
+        <v>916.41499999999996</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>750</v>
+      </c>
+      <c r="T58">
+        <v>8008.2610000000004</v>
+      </c>
+      <c r="U58">
+        <v>1763.079</v>
+      </c>
+      <c r="V58">
+        <v>225.876</v>
+      </c>
+      <c r="W58">
+        <v>-113.95</v>
+      </c>
+      <c r="X58">
+        <v>867.40700000000004</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-3.673</v>
+      </c>
+      <c r="AA58">
+        <v>177.285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>173.77099999999999</v>
+      </c>
+      <c r="D59">
+        <v>633.11800000000005</v>
+      </c>
+      <c r="E59">
+        <v>761.64200000000005</v>
+      </c>
+      <c r="F59">
+        <v>403.86500000000001</v>
+      </c>
+      <c r="G59">
+        <v>2580.241</v>
+      </c>
+      <c r="H59">
+        <v>19179.071</v>
+      </c>
+      <c r="I59">
+        <v>224.08600000000001</v>
+      </c>
+      <c r="J59">
+        <v>10039.375</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-7.66</v>
+      </c>
+      <c r="N59">
+        <v>554.36599999999999</v>
+      </c>
+      <c r="O59">
+        <v>11073.97</v>
+      </c>
+      <c r="P59">
+        <v>10070.228999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-698.68299999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>8105.1009999999997</v>
+      </c>
+      <c r="U59">
+        <v>1064.396</v>
+      </c>
+      <c r="V59">
+        <v>201.446</v>
+      </c>
+      <c r="W59">
+        <v>-883.68399999999997</v>
+      </c>
+      <c r="X59">
+        <v>-902.85400000000004</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>21.199000000000002</v>
+      </c>
+      <c r="AA59">
+        <v>173.77099999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>82.13</v>
+      </c>
+      <c r="D60">
+        <v>621.12300000000005</v>
+      </c>
+      <c r="E60">
+        <v>785.98</v>
+      </c>
+      <c r="F60">
+        <v>397.95600000000002</v>
+      </c>
+      <c r="G60">
+        <v>2499.2820000000002</v>
+      </c>
+      <c r="H60">
+        <v>19113.958999999999</v>
+      </c>
+      <c r="I60">
+        <v>231.9</v>
+      </c>
+      <c r="J60">
+        <v>10017.123</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>553.67600000000004</v>
+      </c>
+      <c r="O60">
+        <v>11019.279</v>
+      </c>
+      <c r="P60">
+        <v>10047.459000000001</v>
+      </c>
+      <c r="Q60">
+        <v>278.35500000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>8094.68</v>
+      </c>
+      <c r="U60">
+        <v>1342.751</v>
+      </c>
+      <c r="V60">
+        <v>241.63</v>
+      </c>
+      <c r="W60">
+        <v>-114.15600000000001</v>
+      </c>
+      <c r="X60">
+        <v>-139.715</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-12.786</v>
+      </c>
+      <c r="AA60">
+        <v>82.078000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>186.655</v>
+      </c>
+      <c r="D61">
+        <v>632.36500000000001</v>
+      </c>
+      <c r="E61">
+        <v>803.59100000000001</v>
+      </c>
+      <c r="F61">
+        <v>404.19</v>
+      </c>
+      <c r="G61">
+        <v>2424.453</v>
+      </c>
+      <c r="H61">
+        <v>18980.262999999999</v>
+      </c>
+      <c r="I61">
+        <v>245.2</v>
+      </c>
+      <c r="J61">
+        <v>9898.0679999999993</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>588.83799999999997</v>
+      </c>
+      <c r="O61">
+        <v>10917.504000000001</v>
+      </c>
+      <c r="P61">
+        <v>9927.8780000000006</v>
+      </c>
+      <c r="Q61">
+        <v>44.256</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>8062.759</v>
+      </c>
+      <c r="U61">
+        <v>1387.0070000000001</v>
+      </c>
+      <c r="V61">
+        <v>165.80199999999999</v>
+      </c>
+      <c r="W61">
+        <v>-114.179</v>
+      </c>
+      <c r="X61">
+        <v>-341.18200000000002</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-6.0810000000000004</v>
+      </c>
+      <c r="AA61">
+        <v>186.72900000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>140.55000000000001</v>
+      </c>
+      <c r="D62">
+        <v>626.24599999999998</v>
+      </c>
+      <c r="E62">
+        <v>852.74800000000005</v>
+      </c>
+      <c r="F62">
+        <v>401.24599999999998</v>
+      </c>
+      <c r="G62">
+        <v>1835.374</v>
+      </c>
+      <c r="H62">
+        <v>18351.486000000001</v>
+      </c>
+      <c r="I62">
+        <v>274.709</v>
+      </c>
+      <c r="J62">
+        <v>9201.2090000000007</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>792.41499999999996</v>
+      </c>
+      <c r="O62">
+        <v>10464.558999999999</v>
+      </c>
+      <c r="P62">
+        <v>9201.2090000000007</v>
+      </c>
+      <c r="Q62">
+        <v>-663.28899999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>765</v>
+      </c>
+      <c r="T62">
+        <v>7886.9269999999997</v>
+      </c>
+      <c r="U62">
+        <v>723.71799999999996</v>
+      </c>
+      <c r="V62">
+        <v>190.53299999999999</v>
+      </c>
+      <c r="W62">
+        <v>-114.18</v>
+      </c>
+      <c r="X62">
+        <v>-174.79499999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-684.92100000000005</v>
+      </c>
+      <c r="AA62">
+        <v>140.55000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>184.36500000000001</v>
+      </c>
+      <c r="D63">
+        <v>667.58399999999995</v>
+      </c>
+      <c r="E63">
+        <v>841.62300000000005</v>
+      </c>
+      <c r="F63">
+        <v>440.75299999999999</v>
+      </c>
+      <c r="G63">
+        <v>2655.4490000000001</v>
+      </c>
+      <c r="H63">
+        <v>19175.830000000002</v>
+      </c>
+      <c r="I63">
+        <v>252.727</v>
+      </c>
+      <c r="J63">
+        <v>10017.512000000001</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-7.0460000000000003</v>
+      </c>
+      <c r="N63">
+        <v>799.18600000000004</v>
+      </c>
+      <c r="O63">
+        <v>11246.04</v>
+      </c>
+      <c r="P63">
+        <v>10229.314</v>
+      </c>
+      <c r="Q63">
+        <v>881.96</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7929.79</v>
+      </c>
+      <c r="U63">
+        <v>1605.6780000000001</v>
+      </c>
+      <c r="V63">
+        <v>348.98</v>
+      </c>
+      <c r="W63">
+        <v>-328.56700000000001</v>
+      </c>
+      <c r="X63">
+        <v>642.33699999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-10.653</v>
+      </c>
+      <c r="AA63">
+        <v>184.36500000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>99.165000000000006</v>
+      </c>
+      <c r="D64">
+        <v>625.59799999999996</v>
+      </c>
+      <c r="E64">
+        <v>861.67700000000002</v>
+      </c>
+      <c r="F64">
+        <v>398.76900000000001</v>
+      </c>
+      <c r="G64">
+        <v>2251.5970000000002</v>
+      </c>
+      <c r="H64">
+        <v>18963.965</v>
+      </c>
+      <c r="I64">
+        <v>287.464</v>
+      </c>
+      <c r="J64">
+        <v>9658.7000000000007</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>999.39300000000003</v>
+      </c>
+      <c r="O64">
+        <v>11065.745999999999</v>
+      </c>
+      <c r="P64">
+        <v>10035.383</v>
+      </c>
+      <c r="Q64">
+        <v>-425.63400000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>7898.2190000000001</v>
+      </c>
+      <c r="U64">
+        <v>1180.0440000000001</v>
+      </c>
+      <c r="V64">
+        <v>235.17099999999999</v>
+      </c>
+      <c r="W64">
+        <v>-114.334</v>
+      </c>
+      <c r="X64">
+        <v>-344.57</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-16.045000000000002</v>
+      </c>
+      <c r="AA64">
+        <v>99.186000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>79.38</v>
+      </c>
+      <c r="D65">
+        <v>628.40700000000004</v>
+      </c>
+      <c r="E65">
+        <v>861.827</v>
+      </c>
+      <c r="F65">
+        <v>391.48</v>
+      </c>
+      <c r="G65">
+        <v>1521.8230000000001</v>
+      </c>
+      <c r="H65">
+        <v>18789.899000000001</v>
+      </c>
+      <c r="I65">
+        <v>312.97899999999998</v>
+      </c>
+      <c r="J65">
+        <v>9855.3269999999993</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>660.64499999999998</v>
+      </c>
+      <c r="O65">
+        <v>10930.646000000001</v>
+      </c>
+      <c r="P65">
+        <v>9855.3269999999993</v>
+      </c>
+      <c r="Q65">
+        <v>-760.721</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7859.2529999999997</v>
+      </c>
+      <c r="U65">
+        <v>419.32299999999998</v>
+      </c>
+      <c r="V65">
+        <v>159.63399999999999</v>
+      </c>
+      <c r="W65">
+        <v>-114.361</v>
+      </c>
+      <c r="X65">
+        <v>-241.56299999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-521.21299999999997</v>
+      </c>
+      <c r="AA65">
+        <v>79.341999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>149.875</v>
+      </c>
+      <c r="D66">
+        <v>639.10400000000004</v>
+      </c>
+      <c r="E66">
+        <v>891.68600000000004</v>
+      </c>
+      <c r="F66">
+        <v>406.07</v>
+      </c>
+      <c r="G66">
+        <v>1441.44</v>
+      </c>
+      <c r="H66">
+        <v>18851.643</v>
+      </c>
+      <c r="I66">
+        <v>298.32400000000001</v>
+      </c>
+      <c r="J66">
+        <v>9497.8130000000001</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>979.85799999999995</v>
+      </c>
+      <c r="O66">
+        <v>10919.718999999999</v>
+      </c>
+      <c r="P66">
+        <v>9804.9060000000009</v>
+      </c>
+      <c r="Q66">
+        <v>-62.408999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>785</v>
+      </c>
+      <c r="T66">
+        <v>7931.924</v>
+      </c>
+      <c r="U66">
+        <v>356.91399999999999</v>
+      </c>
+      <c r="V66">
+        <v>293.089</v>
+      </c>
+      <c r="W66">
+        <v>-114.364</v>
+      </c>
+      <c r="X66">
+        <v>-130.82499999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>47.101999999999997</v>
+      </c>
+      <c r="AA66">
+        <v>149.875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>99.707999999999998</v>
+      </c>
+      <c r="D67">
+        <v>636.55100000000004</v>
+      </c>
+      <c r="E67">
+        <v>885.13599999999997</v>
+      </c>
+      <c r="F67">
+        <v>401.13900000000001</v>
+      </c>
+      <c r="G67">
+        <v>1390.2239999999999</v>
+      </c>
+      <c r="H67">
+        <v>18966.627</v>
+      </c>
+      <c r="I67">
+        <v>313.72300000000001</v>
+      </c>
+      <c r="J67">
+        <v>8260.6579999999994</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-75.540000000000006</v>
+      </c>
+      <c r="N67">
+        <v>2345.6770000000001</v>
+      </c>
+      <c r="O67">
+        <v>11044.189</v>
+      </c>
+      <c r="P67">
+        <v>9895.48</v>
+      </c>
+      <c r="Q67">
+        <v>-65.905000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7922.4380000000001</v>
+      </c>
+      <c r="U67">
+        <v>302.93900000000002</v>
+      </c>
+      <c r="V67">
+        <v>239.852</v>
+      </c>
+      <c r="W67">
+        <v>-131.55500000000001</v>
+      </c>
+      <c r="X67">
+        <v>-37.933999999999997</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-18.940999999999999</v>
+      </c>
+      <c r="AA67">
+        <v>99.707999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>136.30600000000001</v>
+      </c>
+      <c r="D68">
+        <v>661.25099999999998</v>
+      </c>
+      <c r="E68">
+        <v>908.70899999999995</v>
+      </c>
+      <c r="F68">
+        <v>422.09399999999999</v>
+      </c>
+      <c r="G68">
+        <v>1542.4739999999999</v>
+      </c>
+      <c r="H68">
+        <v>19281.761999999999</v>
+      </c>
+      <c r="I68">
+        <v>303.55900000000003</v>
+      </c>
+      <c r="J68">
+        <v>10234.084000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>521.71799999999996</v>
+      </c>
+      <c r="O68">
+        <v>11208.41</v>
+      </c>
+      <c r="P68">
+        <v>10236.638999999999</v>
+      </c>
+      <c r="Q68">
+        <v>185.59700000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8073.3519999999999</v>
+      </c>
+      <c r="U68">
+        <v>492.435</v>
+      </c>
+      <c r="V68">
+        <v>124.95699999999999</v>
+      </c>
+      <c r="W68">
+        <v>-131.666</v>
+      </c>
+      <c r="X68">
+        <v>340.495</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-23.745000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>136.334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>119.947</v>
+      </c>
+      <c r="D69">
+        <v>660.62099999999998</v>
+      </c>
+      <c r="E69">
+        <v>915.16499999999996</v>
+      </c>
+      <c r="F69">
+        <v>414.59399999999999</v>
+      </c>
+      <c r="G69">
+        <v>1636.816</v>
+      </c>
+      <c r="H69">
+        <v>19308.518</v>
+      </c>
+      <c r="I69">
+        <v>325.44</v>
+      </c>
+      <c r="J69">
+        <v>10234.634</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>554.97400000000005</v>
+      </c>
+      <c r="O69">
+        <v>11208.823</v>
+      </c>
+      <c r="P69">
+        <v>10234.634</v>
+      </c>
+      <c r="Q69">
+        <v>37.054000000000002</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8099.6949999999997</v>
+      </c>
+      <c r="U69">
+        <v>493.05500000000001</v>
+      </c>
+      <c r="V69">
+        <v>220.15600000000001</v>
+      </c>
+      <c r="W69">
+        <v>-131.679</v>
+      </c>
+      <c r="X69">
+        <v>-136.88499999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>202.36099999999999</v>
+      </c>
+      <c r="AA69">
+        <v>119.962</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>106.47799999999999</v>
+      </c>
+      <c r="D70">
+        <v>662.09199999999998</v>
+      </c>
+      <c r="E70">
+        <v>953.76099999999997</v>
+      </c>
+      <c r="F70">
+        <v>419.98399999999998</v>
+      </c>
+      <c r="G70">
+        <v>1537.1010000000001</v>
+      </c>
+      <c r="H70">
+        <v>19372.233</v>
+      </c>
+      <c r="I70">
+        <v>331.5</v>
+      </c>
+      <c r="J70">
+        <v>10271.611000000001</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>554.18600000000004</v>
+      </c>
+      <c r="O70">
+        <v>11269.777</v>
+      </c>
+      <c r="P70">
+        <v>10271.611000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-71.465000000000003</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>740</v>
+      </c>
+      <c r="T70">
+        <v>8102.4560000000001</v>
+      </c>
+      <c r="U70">
+        <v>434.767</v>
+      </c>
+      <c r="V70">
+        <v>327.01400000000001</v>
+      </c>
+      <c r="W70">
+        <v>-131.678</v>
+      </c>
+      <c r="X70">
+        <v>-110.33</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-19.359000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>106.47799999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>178.64599999999999</v>
+      </c>
+      <c r="D71">
+        <v>660.09199999999998</v>
+      </c>
+      <c r="E71">
+        <v>962.30799999999999</v>
+      </c>
+      <c r="F71">
+        <v>411.66899999999998</v>
+      </c>
+      <c r="G71">
+        <v>1564.693</v>
+      </c>
+      <c r="H71">
+        <v>19583.938999999998</v>
+      </c>
+      <c r="I71">
+        <v>355.00200000000001</v>
+      </c>
+      <c r="J71">
+        <v>10339.313</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-195.78</v>
+      </c>
+      <c r="N71">
+        <v>590.39599999999996</v>
+      </c>
+      <c r="O71">
+        <v>11399.849</v>
+      </c>
+      <c r="P71">
+        <v>10339.313</v>
+      </c>
+      <c r="Q71">
+        <v>-50.24</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8184.09</v>
+      </c>
+      <c r="U71">
+        <v>294.57100000000003</v>
+      </c>
+      <c r="V71">
+        <v>225.77799999999999</v>
+      </c>
+      <c r="W71">
+        <v>-140.28800000000001</v>
+      </c>
+      <c r="X71">
+        <v>-92.23</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-49.140999999999998</v>
+      </c>
+      <c r="AA71">
+        <v>178.64599999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>131.286</v>
+      </c>
+      <c r="D72">
+        <v>664.61900000000003</v>
+      </c>
+      <c r="E72">
+        <v>976.31200000000001</v>
+      </c>
+      <c r="F72">
+        <v>417.61399999999998</v>
+      </c>
+      <c r="G72">
+        <v>1789.3440000000001</v>
+      </c>
+      <c r="H72">
+        <v>19961.163</v>
+      </c>
+      <c r="I72">
+        <v>327.06700000000001</v>
+      </c>
+      <c r="J72">
+        <v>10721.878000000001</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>563.17399999999998</v>
+      </c>
+      <c r="O72">
+        <v>11747.921</v>
+      </c>
+      <c r="P72">
+        <v>10721.878000000001</v>
+      </c>
+      <c r="Q72">
+        <v>271.93099999999998</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8213.2420000000002</v>
+      </c>
+      <c r="U72">
+        <v>472.55500000000001</v>
+      </c>
+      <c r="V72">
+        <v>335.06799999999998</v>
+      </c>
+      <c r="W72">
+        <v>-140.46600000000001</v>
+      </c>
+      <c r="X72">
+        <v>238.876</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-16.632000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>131.30600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>121.77800000000001</v>
+      </c>
+      <c r="D73">
+        <v>680.91</v>
+      </c>
+      <c r="E73">
+        <v>1024.7760000000001</v>
+      </c>
+      <c r="F73">
+        <v>423.17899999999997</v>
+      </c>
+      <c r="G73">
+        <v>1662.0029999999999</v>
+      </c>
+      <c r="H73">
+        <v>20137.498</v>
+      </c>
+      <c r="I73">
+        <v>315.46199999999999</v>
+      </c>
+      <c r="J73">
+        <v>10889.701999999999</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>573.38900000000001</v>
+      </c>
+      <c r="O73">
+        <v>11931.523999999999</v>
+      </c>
+      <c r="P73">
+        <v>10889.701999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-303.27600000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8205.9740000000002</v>
+      </c>
+      <c r="U73">
+        <v>322.50200000000001</v>
+      </c>
+      <c r="V73">
+        <v>209.78100000000001</v>
+      </c>
+      <c r="W73">
+        <v>-140.51</v>
+      </c>
+      <c r="X73">
+        <v>21.209</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-249.06299999999999</v>
+      </c>
+      <c r="AA73">
+        <v>121.74299999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>151.137</v>
+      </c>
+      <c r="D74">
+        <v>701.67899999999997</v>
+      </c>
+      <c r="E74">
+        <v>1021.525</v>
+      </c>
+      <c r="F74">
+        <v>440.22</v>
+      </c>
+      <c r="G74">
+        <v>1841.127</v>
+      </c>
+      <c r="H74">
+        <v>20256.476999999999</v>
+      </c>
+      <c r="I74">
+        <v>276.64499999999998</v>
+      </c>
+      <c r="J74">
+        <v>11007.757</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>531.02599999999995</v>
+      </c>
+      <c r="O74">
+        <v>12042.509</v>
+      </c>
+      <c r="P74">
+        <v>11007.757</v>
+      </c>
+      <c r="Q74">
+        <v>215.40700000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>760</v>
+      </c>
+      <c r="T74">
+        <v>8213.9680000000008</v>
+      </c>
+      <c r="U74">
+        <v>543.35900000000004</v>
+      </c>
+      <c r="V74">
+        <v>379.61799999999999</v>
+      </c>
+      <c r="W74">
+        <v>-166.364</v>
+      </c>
+      <c r="X74">
+        <v>-85.402000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-31.783000000000001</v>
+      </c>
+      <c r="AA74">
+        <v>151.137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>100.73</v>
+      </c>
+      <c r="D75">
+        <v>723.95600000000002</v>
+      </c>
+      <c r="E75">
+        <v>1046.5250000000001</v>
+      </c>
+      <c r="F75">
+        <v>458.11599999999999</v>
+      </c>
+      <c r="G75">
+        <v>1709.8879999999999</v>
+      </c>
+      <c r="H75">
+        <v>20501.603999999999</v>
+      </c>
+      <c r="I75">
+        <v>328.88499999999999</v>
+      </c>
+      <c r="J75">
+        <v>11005.558000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-56.115000000000002</v>
+      </c>
+      <c r="N75">
+        <v>583.40800000000002</v>
+      </c>
+      <c r="O75">
+        <v>12331.316999999999</v>
+      </c>
+      <c r="P75">
+        <v>11378.334000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-206.893</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>8170.2870000000003</v>
+      </c>
+      <c r="U75">
+        <v>360.09100000000001</v>
+      </c>
+      <c r="V75">
+        <v>207.23400000000001</v>
+      </c>
+      <c r="W75">
+        <v>-166.36199999999999</v>
+      </c>
+      <c r="X75">
+        <v>-190.61199999999999</v>
+      </c>
+      <c r="Y75">
+        <v>372.77600000000001</v>
+      </c>
+      <c r="Z75">
+        <v>-27.88</v>
+      </c>
+      <c r="AA75">
+        <v>100.73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>166.95099999999999</v>
+      </c>
+      <c r="D76">
+        <v>753.71400000000006</v>
+      </c>
+      <c r="E76">
+        <v>1060.894</v>
+      </c>
+      <c r="F76">
+        <v>486.24599999999998</v>
+      </c>
+      <c r="G76">
+        <v>2392.2370000000001</v>
+      </c>
+      <c r="H76">
+        <v>21268.275000000001</v>
+      </c>
+      <c r="I76">
+        <v>418.42899999999997</v>
+      </c>
+      <c r="J76">
+        <v>11846.241</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>673.13699999999994</v>
+      </c>
+      <c r="O76">
+        <v>13247.608</v>
+      </c>
+      <c r="P76">
+        <v>12218.486999999999</v>
+      </c>
+      <c r="Q76">
+        <v>730.62599999999998</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8020.6670000000004</v>
+      </c>
+      <c r="U76">
+        <v>1087.001</v>
+      </c>
+      <c r="V76">
+        <v>358.37</v>
+      </c>
+      <c r="W76">
+        <v>-166.59899999999999</v>
+      </c>
+      <c r="X76">
+        <v>476.69299999999998</v>
+      </c>
+      <c r="Y76">
+        <v>372.24599999999998</v>
+      </c>
+      <c r="Z76">
+        <v>81.733000000000004</v>
+      </c>
+      <c r="AA76">
+        <v>166.94300000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>110.39400000000001</v>
+      </c>
+      <c r="D77">
+        <v>741.51599999999996</v>
+      </c>
+      <c r="E77">
+        <v>1105.1880000000001</v>
+      </c>
+      <c r="F77">
+        <v>466.63200000000001</v>
+      </c>
+      <c r="G77">
+        <v>2120.105</v>
+      </c>
+      <c r="H77">
+        <v>21288.575000000001</v>
+      </c>
+      <c r="I77">
+        <v>421.26900000000001</v>
+      </c>
+      <c r="J77">
+        <v>11838.737999999999</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>669.86699999999996</v>
+      </c>
+      <c r="O77">
+        <v>13292.808000000001</v>
+      </c>
+      <c r="P77">
+        <v>12259.522000000001</v>
+      </c>
+      <c r="Q77">
+        <v>-358.15899999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>7995.7669999999998</v>
+      </c>
+      <c r="U77">
+        <v>751.21</v>
+      </c>
+      <c r="V77">
+        <v>254.18799999999999</v>
+      </c>
+      <c r="W77">
+        <v>-166.666</v>
+      </c>
+      <c r="X77">
+        <v>-203.833</v>
+      </c>
+      <c r="Y77">
+        <v>420.78399999999999</v>
+      </c>
+      <c r="Z77">
+        <v>15.518000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>110.396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>143.459</v>
+      </c>
+      <c r="D78">
+        <v>755.41300000000001</v>
+      </c>
+      <c r="E78">
+        <v>1151.595</v>
+      </c>
+      <c r="F78">
+        <v>477.60700000000003</v>
+      </c>
+      <c r="G78">
+        <v>1981.086</v>
+      </c>
+      <c r="H78">
+        <v>21284.904999999999</v>
+      </c>
+      <c r="I78">
+        <v>377.553</v>
+      </c>
+      <c r="J78">
+        <v>11811.806</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>638.28200000000004</v>
+      </c>
+      <c r="O78">
+        <v>13270.669</v>
+      </c>
+      <c r="P78">
+        <v>12236.028</v>
+      </c>
+      <c r="Q78">
+        <v>-112.879</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>760</v>
+      </c>
+      <c r="T78">
+        <v>8014.2359999999999</v>
+      </c>
+      <c r="U78">
+        <v>644.95000000000005</v>
+      </c>
+      <c r="V78">
+        <v>361.37299999999999</v>
+      </c>
+      <c r="W78">
+        <v>-166.667</v>
+      </c>
+      <c r="X78">
+        <v>-195.62700000000001</v>
+      </c>
+      <c r="Y78">
+        <v>424.22199999999998</v>
+      </c>
+      <c r="Z78">
+        <v>-22.088000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>143.459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>500.12099999999998</v>
+      </c>
+      <c r="D79">
+        <v>750.57100000000003</v>
+      </c>
+      <c r="E79">
+        <v>1149.1079999999999</v>
+      </c>
+      <c r="F79">
+        <v>480.16899999999998</v>
+      </c>
+      <c r="G79">
+        <v>2239.0100000000002</v>
+      </c>
+      <c r="H79">
+        <v>21829.698</v>
+      </c>
+      <c r="I79">
+        <v>293.83100000000002</v>
+      </c>
+      <c r="J79">
+        <v>12061.224</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-19.212</v>
+      </c>
+      <c r="N79">
+        <v>547.245</v>
+      </c>
+      <c r="O79">
+        <v>13408.815000000001</v>
+      </c>
+      <c r="P79">
+        <v>12488.864</v>
+      </c>
+      <c r="Q79">
+        <v>166.69200000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>8420.8829999999998</v>
+      </c>
+      <c r="U79">
+        <v>660.73299999999995</v>
+      </c>
+      <c r="V79">
+        <v>175.197</v>
+      </c>
+      <c r="W79">
+        <v>-171.964</v>
+      </c>
+      <c r="X79">
+        <v>65.287999999999997</v>
+      </c>
+      <c r="Y79">
+        <v>427.64</v>
+      </c>
+      <c r="Z79">
+        <v>-86.796000000000006</v>
+      </c>
+      <c r="AA79">
+        <v>500.33199999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>269.36099999999999</v>
+      </c>
+      <c r="D80">
+        <v>650.51300000000003</v>
+      </c>
+      <c r="E80">
+        <v>1151.549</v>
+      </c>
+      <c r="F80">
+        <v>408.42099999999999</v>
+      </c>
+      <c r="G80">
+        <v>3303.9720000000002</v>
+      </c>
+      <c r="H80">
+        <v>23000.776999999998</v>
+      </c>
+      <c r="I80">
+        <v>328.29199999999997</v>
+      </c>
+      <c r="J80">
+        <v>13048.579</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>594.64300000000003</v>
+      </c>
+      <c r="O80">
+        <v>14453.630999999999</v>
+      </c>
+      <c r="P80">
+        <v>13479.704</v>
+      </c>
+      <c r="Q80">
+        <v>1133.077</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>8547.1460000000006</v>
+      </c>
+      <c r="U80">
+        <v>1691.047</v>
+      </c>
+      <c r="V80">
+        <v>379.07499999999999</v>
+      </c>
+      <c r="W80">
+        <v>-172.27500000000001</v>
+      </c>
+      <c r="X80">
+        <v>800.73099999999999</v>
+      </c>
+      <c r="Y80">
+        <v>431.125</v>
+      </c>
+      <c r="Z80">
+        <v>38.046999999999997</v>
+      </c>
+      <c r="AA80">
+        <v>269.60500000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>92.933999999999997</v>
+      </c>
+      <c r="D81">
+        <v>685.95100000000002</v>
+      </c>
+      <c r="E81">
+        <v>1187.4079999999999</v>
+      </c>
+      <c r="F81">
+        <v>424.21899999999999</v>
+      </c>
+      <c r="G81">
+        <v>3161.6170000000002</v>
+      </c>
+      <c r="H81">
+        <v>22959.215</v>
+      </c>
+      <c r="I81">
+        <v>345.959</v>
+      </c>
+      <c r="J81">
+        <v>13048.161</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>605.85500000000002</v>
+      </c>
+      <c r="O81">
+        <v>14464.177</v>
+      </c>
+      <c r="P81">
+        <v>13482.786</v>
+      </c>
+      <c r="Q81">
+        <v>-226.86600000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8495.0380000000005</v>
+      </c>
+      <c r="U81">
+        <v>1714.7829999999999</v>
+      </c>
+      <c r="V81">
+        <v>228.15100000000001</v>
+      </c>
+      <c r="W81">
+        <v>-172.333</v>
+      </c>
+      <c r="X81">
+        <v>-187.12799999999999</v>
+      </c>
+      <c r="Y81">
+        <v>434.625</v>
+      </c>
+      <c r="Z81">
+        <v>-51.723999999999997</v>
+      </c>
+      <c r="AA81">
+        <v>92.478999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>10.311</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>650.76900000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1199.913</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>393.12</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3049.3629999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>22858.19</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>336.26400000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>13047.758</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>644.62199999999996</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>14518.578</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>13485.963</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-45.46</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>750</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>8339.6119999999992</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1668.742</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>374.41699999999997</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-172.33199999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-194.56899999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>407.21699999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-14.114000000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>10.311</v>
       </c>
     </row>
